--- a/Pokemon_Server/data/pkm_locations.xlsx
+++ b/Pokemon_Server/data/pkm_locations.xlsx
@@ -454,15 +454,9 @@
     <t>dark-cave</t>
   </si>
   <si>
-    <t>Diglett's Cave</t>
-  </si>
-  <si>
     <t>digletts-cave</t>
   </si>
   <si>
-    <t>Dragon's Den</t>
-  </si>
-  <si>
     <t>dragons-den</t>
   </si>
   <si>
@@ -1141,9 +1135,6 @@
     <t>gts</t>
   </si>
   <si>
-    <t>Trainers' School</t>
-  </si>
-  <si>
     <t>trainers-school</t>
   </si>
   <si>
@@ -1303,9 +1294,6 @@
     <t>battleground</t>
   </si>
   <si>
-    <t>ROTOM's Room</t>
-  </si>
-  <si>
     <t>rotoms-room</t>
   </si>
   <si>
@@ -2203,9 +2191,6 @@
     <t>unova-pokemon-league</t>
   </si>
   <si>
-    <t>N's Castle</t>
-  </si>
-  <si>
     <t>ns-castle</t>
   </si>
   <si>
@@ -2287,9 +2272,6 @@
     <t>unova-shopping-mall</t>
   </si>
   <si>
-    <t>Challenger's Cave</t>
-  </si>
-  <si>
     <t>challengers-cave</t>
   </si>
   <si>
@@ -3826,9 +3808,6 @@
     <t>chamber-of-emptiness</t>
   </si>
   <si>
-    <t>Sea Spirit's Den</t>
-  </si>
-  <si>
     <t>sea-spirits-den</t>
   </si>
   <si>
@@ -3896,6 +3875,27 @@
   </si>
   <si>
     <t>unknown-dungeon</t>
+  </si>
+  <si>
+    <t>Diglett''s Cave</t>
+  </si>
+  <si>
+    <t>Dragon''s Den</t>
+  </si>
+  <si>
+    <t>Trainers'' School</t>
+  </si>
+  <si>
+    <t>ROTOM''s Room</t>
+  </si>
+  <si>
+    <t>N''s Castle</t>
+  </si>
+  <si>
+    <t>Challenger''s Cave</t>
+  </si>
+  <si>
+    <t>Sea Spirit''s Den</t>
   </si>
 </sst>
 </file>
@@ -5271,10 +5271,10 @@
         <v>1</v>
       </c>
       <c r="C73" t="s">
+        <v>1287</v>
+      </c>
+      <c r="D73" t="s">
         <v>146</v>
-      </c>
-      <c r="D73" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
@@ -5285,10 +5285,10 @@
         <v>2</v>
       </c>
       <c r="C74" t="s">
-        <v>148</v>
+        <v>1288</v>
       </c>
       <c r="D74" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
@@ -5299,10 +5299,10 @@
         <v>2</v>
       </c>
       <c r="C75" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D75" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
@@ -5313,10 +5313,10 @@
         <v>1</v>
       </c>
       <c r="C76" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D76" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
@@ -5327,10 +5327,10 @@
         <v>2</v>
       </c>
       <c r="C77" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D77" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
@@ -5341,10 +5341,10 @@
         <v>2</v>
       </c>
       <c r="C78" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D78" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
@@ -5355,10 +5355,10 @@
         <v>2</v>
       </c>
       <c r="C79" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D79" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
@@ -5369,10 +5369,10 @@
         <v>1</v>
       </c>
       <c r="C80" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D80" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
@@ -5383,10 +5383,10 @@
         <v>2</v>
       </c>
       <c r="C81" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D81" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
@@ -5397,10 +5397,10 @@
         <v>2</v>
       </c>
       <c r="C82" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D82" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
@@ -5411,10 +5411,10 @@
         <v>2</v>
       </c>
       <c r="C83" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D83" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
@@ -5425,10 +5425,10 @@
         <v>2</v>
       </c>
       <c r="C84" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D84" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
@@ -5439,10 +5439,10 @@
         <v>2</v>
       </c>
       <c r="C85" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D85" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
@@ -5453,10 +5453,10 @@
         <v>1</v>
       </c>
       <c r="C86" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D86" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
@@ -5467,10 +5467,10 @@
         <v>1</v>
       </c>
       <c r="C87" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D87" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
@@ -5481,10 +5481,10 @@
         <v>1</v>
       </c>
       <c r="C88" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D88" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
@@ -5495,10 +5495,10 @@
         <v>1</v>
       </c>
       <c r="C89" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D89" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
@@ -5509,10 +5509,10 @@
         <v>1</v>
       </c>
       <c r="C90" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D90" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
@@ -5523,10 +5523,10 @@
         <v>1</v>
       </c>
       <c r="C91" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D91" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
@@ -5537,10 +5537,10 @@
         <v>1</v>
       </c>
       <c r="C92" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D92" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
@@ -5551,10 +5551,10 @@
         <v>1</v>
       </c>
       <c r="C93" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D93" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
@@ -5565,10 +5565,10 @@
         <v>1</v>
       </c>
       <c r="C94" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D94" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
@@ -5579,10 +5579,10 @@
         <v>1</v>
       </c>
       <c r="C95" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D95" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
@@ -5593,10 +5593,10 @@
         <v>1</v>
       </c>
       <c r="C96" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D96" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
@@ -5607,10 +5607,10 @@
         <v>1</v>
       </c>
       <c r="C97" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D97" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
@@ -5621,10 +5621,10 @@
         <v>1</v>
       </c>
       <c r="C98" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D98" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
@@ -5635,10 +5635,10 @@
         <v>1</v>
       </c>
       <c r="C99" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D99" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
@@ -5649,10 +5649,10 @@
         <v>1</v>
       </c>
       <c r="C100" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D100" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
@@ -5663,10 +5663,10 @@
         <v>1</v>
       </c>
       <c r="C101" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D101" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
@@ -5677,10 +5677,10 @@
         <v>1</v>
       </c>
       <c r="C102" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D102" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
@@ -5691,10 +5691,10 @@
         <v>1</v>
       </c>
       <c r="C103" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D103" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
@@ -5705,10 +5705,10 @@
         <v>1</v>
       </c>
       <c r="C104" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D104" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
@@ -5719,10 +5719,10 @@
         <v>1</v>
       </c>
       <c r="C105" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D105" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
@@ -5733,10 +5733,10 @@
         <v>1</v>
       </c>
       <c r="C106" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D106" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
@@ -5747,10 +5747,10 @@
         <v>1</v>
       </c>
       <c r="C107" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D107" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
@@ -5761,10 +5761,10 @@
         <v>2</v>
       </c>
       <c r="C108" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D108" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
@@ -5775,10 +5775,10 @@
         <v>1</v>
       </c>
       <c r="C109" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D109" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
@@ -5789,10 +5789,10 @@
         <v>2</v>
       </c>
       <c r="C110" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D110" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
@@ -5803,10 +5803,10 @@
         <v>2</v>
       </c>
       <c r="C111" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D111" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
@@ -5817,10 +5817,10 @@
         <v>2</v>
       </c>
       <c r="C112" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D112" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
@@ -5831,10 +5831,10 @@
         <v>2</v>
       </c>
       <c r="C113" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D113" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
@@ -5845,10 +5845,10 @@
         <v>2</v>
       </c>
       <c r="C114" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D114" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
@@ -5859,10 +5859,10 @@
         <v>2</v>
       </c>
       <c r="C115" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D115" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
@@ -5873,10 +5873,10 @@
         <v>2</v>
       </c>
       <c r="C116" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D116" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
@@ -5887,10 +5887,10 @@
         <v>2</v>
       </c>
       <c r="C117" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D117" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
@@ -5901,10 +5901,10 @@
         <v>2</v>
       </c>
       <c r="C118" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D118" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
@@ -5915,10 +5915,10 @@
         <v>2</v>
       </c>
       <c r="C119" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D119" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
@@ -5929,10 +5929,10 @@
         <v>1</v>
       </c>
       <c r="C120" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D120" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
@@ -5943,10 +5943,10 @@
         <v>2</v>
       </c>
       <c r="C121" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D121" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
@@ -5957,10 +5957,10 @@
         <v>2</v>
       </c>
       <c r="C122" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D122" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
@@ -5971,10 +5971,10 @@
         <v>2</v>
       </c>
       <c r="C123" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D123" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
@@ -5985,10 +5985,10 @@
         <v>2</v>
       </c>
       <c r="C124" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D124" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
@@ -5999,10 +5999,10 @@
         <v>2</v>
       </c>
       <c r="C125" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D125" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
@@ -6013,10 +6013,10 @@
         <v>2</v>
       </c>
       <c r="C126" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D126" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
@@ -6027,10 +6027,10 @@
         <v>2</v>
       </c>
       <c r="C127" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D127" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
@@ -6041,10 +6041,10 @@
         <v>2</v>
       </c>
       <c r="C128" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D128" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
@@ -6055,10 +6055,10 @@
         <v>2</v>
       </c>
       <c r="C129" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D129" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
@@ -6069,10 +6069,10 @@
         <v>1</v>
       </c>
       <c r="C130" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D130" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
@@ -6083,10 +6083,10 @@
         <v>1</v>
       </c>
       <c r="C131" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D131" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
@@ -6097,10 +6097,10 @@
         <v>1</v>
       </c>
       <c r="C132" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D132" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
@@ -6111,10 +6111,10 @@
         <v>1</v>
       </c>
       <c r="C133" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D133" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
@@ -6125,10 +6125,10 @@
         <v>1</v>
       </c>
       <c r="C134" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D134" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
@@ -6139,10 +6139,10 @@
         <v>2</v>
       </c>
       <c r="C135" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D135" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
@@ -6153,10 +6153,10 @@
         <v>1</v>
       </c>
       <c r="C136" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D136" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
@@ -6167,10 +6167,10 @@
         <v>2</v>
       </c>
       <c r="C137" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D137" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
@@ -6181,10 +6181,10 @@
         <v>2</v>
       </c>
       <c r="C138" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D138" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
@@ -6195,10 +6195,10 @@
         <v>2</v>
       </c>
       <c r="C139" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D139" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
@@ -6209,10 +6209,10 @@
         <v>2</v>
       </c>
       <c r="C140" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D140" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
@@ -6223,10 +6223,10 @@
         <v>2</v>
       </c>
       <c r="C141" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D141" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
@@ -6237,10 +6237,10 @@
         <v>1</v>
       </c>
       <c r="C142" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D142" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
@@ -6251,10 +6251,10 @@
         <v>2</v>
       </c>
       <c r="C143" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D143" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
@@ -6265,10 +6265,10 @@
         <v>2</v>
       </c>
       <c r="C144" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D144" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
@@ -6279,10 +6279,10 @@
         <v>2</v>
       </c>
       <c r="C145" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D145" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
@@ -6293,10 +6293,10 @@
         <v>1</v>
       </c>
       <c r="C146" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D146" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
@@ -6310,7 +6310,7 @@
         <v>28</v>
       </c>
       <c r="D147" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
@@ -6321,10 +6321,10 @@
         <v>2</v>
       </c>
       <c r="C148" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D148" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
@@ -6335,10 +6335,10 @@
         <v>1</v>
       </c>
       <c r="C149" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D149" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
@@ -6349,10 +6349,10 @@
         <v>1</v>
       </c>
       <c r="C150" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D150" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
@@ -6363,10 +6363,10 @@
         <v>2</v>
       </c>
       <c r="C151" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D151" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
@@ -6377,10 +6377,10 @@
         <v>1</v>
       </c>
       <c r="C152" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D152" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
@@ -6391,10 +6391,10 @@
         <v>1</v>
       </c>
       <c r="C153" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D153" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
@@ -6408,7 +6408,7 @@
         <v>28</v>
       </c>
       <c r="D154" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
@@ -6419,10 +6419,10 @@
         <v>1</v>
       </c>
       <c r="C155" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D155" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
@@ -6433,10 +6433,10 @@
         <v>1</v>
       </c>
       <c r="C156" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D156" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
@@ -6447,10 +6447,10 @@
         <v>1</v>
       </c>
       <c r="C157" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D157" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
@@ -6461,10 +6461,10 @@
         <v>4</v>
       </c>
       <c r="C158" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D158" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
@@ -6475,10 +6475,10 @@
         <v>4</v>
       </c>
       <c r="C159" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D159" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
@@ -6489,10 +6489,10 @@
         <v>4</v>
       </c>
       <c r="C160" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D160" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
@@ -6503,10 +6503,10 @@
         <v>4</v>
       </c>
       <c r="C161" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D161" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
@@ -6517,10 +6517,10 @@
         <v>4</v>
       </c>
       <c r="C162" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D162" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
@@ -6531,10 +6531,10 @@
         <v>4</v>
       </c>
       <c r="C163" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D163" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
@@ -6545,10 +6545,10 @@
         <v>4</v>
       </c>
       <c r="C164" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D164" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
@@ -6559,10 +6559,10 @@
         <v>4</v>
       </c>
       <c r="C165" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D165" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
@@ -6573,10 +6573,10 @@
         <v>4</v>
       </c>
       <c r="C166" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D166" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
@@ -6587,10 +6587,10 @@
         <v>4</v>
       </c>
       <c r="C167" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D167" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
@@ -6601,10 +6601,10 @@
         <v>4</v>
       </c>
       <c r="C168" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D168" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
@@ -6615,10 +6615,10 @@
         <v>4</v>
       </c>
       <c r="C169" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D169" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
@@ -6629,10 +6629,10 @@
         <v>4</v>
       </c>
       <c r="C170" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D170" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
@@ -6643,10 +6643,10 @@
         <v>4</v>
       </c>
       <c r="C171" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D171" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
@@ -6657,10 +6657,10 @@
         <v>4</v>
       </c>
       <c r="C172" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D172" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
@@ -6671,10 +6671,10 @@
         <v>4</v>
       </c>
       <c r="C173" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D173" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
@@ -6685,10 +6685,10 @@
         <v>4</v>
       </c>
       <c r="C174" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D174" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
@@ -6699,10 +6699,10 @@
         <v>4</v>
       </c>
       <c r="C175" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D175" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
@@ -6713,10 +6713,10 @@
         <v>4</v>
       </c>
       <c r="C176" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D176" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
@@ -6727,10 +6727,10 @@
         <v>4</v>
       </c>
       <c r="C177" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D177" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
@@ -6741,10 +6741,10 @@
         <v>4</v>
       </c>
       <c r="C178" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D178" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
@@ -6755,10 +6755,10 @@
         <v>4</v>
       </c>
       <c r="C179" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D179" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
@@ -6769,10 +6769,10 @@
         <v>4</v>
       </c>
       <c r="C180" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D180" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
@@ -6783,10 +6783,10 @@
         <v>4</v>
       </c>
       <c r="C181" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D181" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
@@ -6797,10 +6797,10 @@
         <v>4</v>
       </c>
       <c r="C182" t="s">
+        <v>358</v>
+      </c>
+      <c r="D182" t="s">
         <v>360</v>
-      </c>
-      <c r="D182" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
@@ -6811,10 +6811,10 @@
         <v>4</v>
       </c>
       <c r="C183" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="D183" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
@@ -6825,10 +6825,10 @@
         <v>4</v>
       </c>
       <c r="C184" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="D184" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
@@ -6839,10 +6839,10 @@
         <v>4</v>
       </c>
       <c r="C185" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D185" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
@@ -6853,10 +6853,10 @@
         <v>4</v>
       </c>
       <c r="C186" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="D186" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
@@ -6867,10 +6867,10 @@
         <v>4</v>
       </c>
       <c r="C187" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="D187" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
@@ -6881,10 +6881,10 @@
         <v>4</v>
       </c>
       <c r="C188" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="D188" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
@@ -6895,10 +6895,10 @@
         <v>4</v>
       </c>
       <c r="C189" t="s">
-        <v>375</v>
+        <v>1289</v>
       </c>
       <c r="D189" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
@@ -6909,10 +6909,10 @@
         <v>4</v>
       </c>
       <c r="C190" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="D190" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
@@ -6923,10 +6923,10 @@
         <v>4</v>
       </c>
       <c r="C191" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="D191" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
@@ -6937,10 +6937,10 @@
         <v>4</v>
       </c>
       <c r="C192" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="D192" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
@@ -6951,10 +6951,10 @@
         <v>4</v>
       </c>
       <c r="C193" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="D193" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
@@ -6965,10 +6965,10 @@
         <v>4</v>
       </c>
       <c r="C194" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="D194" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
@@ -6979,10 +6979,10 @@
         <v>4</v>
       </c>
       <c r="C195" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="D195" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
@@ -6993,10 +6993,10 @@
         <v>4</v>
       </c>
       <c r="C196" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="D196" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
@@ -7007,10 +7007,10 @@
         <v>4</v>
       </c>
       <c r="C197" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="D197" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
@@ -7021,10 +7021,10 @@
         <v>4</v>
       </c>
       <c r="C198" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="D198" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
@@ -7035,10 +7035,10 @@
         <v>4</v>
       </c>
       <c r="C199" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="D199" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
@@ -7049,10 +7049,10 @@
         <v>4</v>
       </c>
       <c r="C200" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="D200" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
@@ -7063,10 +7063,10 @@
         <v>4</v>
       </c>
       <c r="C201" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="D201" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
@@ -7077,10 +7077,10 @@
         <v>4</v>
       </c>
       <c r="C202" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="D202" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
@@ -7091,10 +7091,10 @@
         <v>4</v>
       </c>
       <c r="C203" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="D203" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
@@ -7105,10 +7105,10 @@
         <v>4</v>
       </c>
       <c r="C204" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="D204" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
@@ -7119,10 +7119,10 @@
         <v>4</v>
       </c>
       <c r="C205" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="D205" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
@@ -7133,10 +7133,10 @@
         <v>4</v>
       </c>
       <c r="C206" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="D206" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
@@ -7147,10 +7147,10 @@
         <v>4</v>
       </c>
       <c r="C207" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="D207" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
@@ -7161,10 +7161,10 @@
         <v>4</v>
       </c>
       <c r="C208" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="D208" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
@@ -7175,10 +7175,10 @@
         <v>4</v>
       </c>
       <c r="C209" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="D209" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
@@ -7189,10 +7189,10 @@
         <v>4</v>
       </c>
       <c r="C210" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="D210" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
@@ -7203,10 +7203,10 @@
         <v>4</v>
       </c>
       <c r="C211" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="D211" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
@@ -7217,10 +7217,10 @@
         <v>4</v>
       </c>
       <c r="C212" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="D212" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
@@ -7231,10 +7231,10 @@
         <v>4</v>
       </c>
       <c r="C213" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="D213" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
@@ -7245,10 +7245,10 @@
         <v>4</v>
       </c>
       <c r="C214" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="D214" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
@@ -7259,10 +7259,10 @@
         <v>4</v>
       </c>
       <c r="C215" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="D215" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
@@ -7273,10 +7273,10 @@
         <v>4</v>
       </c>
       <c r="C216" t="s">
-        <v>429</v>
+        <v>1290</v>
       </c>
       <c r="D216" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
@@ -7287,10 +7287,10 @@
         <v>4</v>
       </c>
       <c r="C217" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="D217" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
@@ -7301,10 +7301,10 @@
         <v>4</v>
       </c>
       <c r="C218" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="D218" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
@@ -7315,10 +7315,10 @@
         <v>4</v>
       </c>
       <c r="C219" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="D219" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
@@ -7329,10 +7329,10 @@
         <v>4</v>
       </c>
       <c r="C220" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="D220" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.25">
@@ -7343,10 +7343,10 @@
         <v>2</v>
       </c>
       <c r="C221" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="D221" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
@@ -7357,10 +7357,10 @@
         <v>2</v>
       </c>
       <c r="C222" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="D222" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.25">
@@ -7371,10 +7371,10 @@
         <v>2</v>
       </c>
       <c r="C223" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="D223" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
@@ -7385,10 +7385,10 @@
         <v>1</v>
       </c>
       <c r="C224" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="D224" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
@@ -7399,10 +7399,10 @@
         <v>1</v>
       </c>
       <c r="C225" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="D225" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.25">
@@ -7413,10 +7413,10 @@
         <v>1</v>
       </c>
       <c r="C226" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="D226" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
@@ -7427,10 +7427,10 @@
         <v>1</v>
       </c>
       <c r="C227" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="D227" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
@@ -7441,10 +7441,10 @@
         <v>2</v>
       </c>
       <c r="C228" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="D228" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.25">
@@ -7455,10 +7455,10 @@
         <v>2</v>
       </c>
       <c r="C229" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="D229" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.25">
@@ -7469,10 +7469,10 @@
         <v>2</v>
       </c>
       <c r="C230" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="D230" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.25">
@@ -7483,10 +7483,10 @@
         <v>2</v>
       </c>
       <c r="C231" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="D231" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.25">
@@ -7497,10 +7497,10 @@
         <v>2</v>
       </c>
       <c r="C232" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="D232" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.25">
@@ -7511,10 +7511,10 @@
         <v>2</v>
       </c>
       <c r="C233" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="D233" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.25">
@@ -7525,10 +7525,10 @@
         <v>2</v>
       </c>
       <c r="C234" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="D234" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.25">
@@ -7539,10 +7539,10 @@
         <v>2</v>
       </c>
       <c r="C235" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="D235" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.25">
@@ -7553,10 +7553,10 @@
         <v>2</v>
       </c>
       <c r="C236" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="D236" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.25">
@@ -7567,10 +7567,10 @@
         <v>2</v>
       </c>
       <c r="C237" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="D237" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.25">
@@ -7581,10 +7581,10 @@
         <v>2</v>
       </c>
       <c r="C238" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="D238" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.25">
@@ -7595,10 +7595,10 @@
         <v>2</v>
       </c>
       <c r="C239" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="D239" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.25">
@@ -7609,10 +7609,10 @@
         <v>2</v>
       </c>
       <c r="C240" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="D240" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.25">
@@ -7623,10 +7623,10 @@
         <v>2</v>
       </c>
       <c r="C241" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="D241" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.25">
@@ -7637,10 +7637,10 @@
         <v>2</v>
       </c>
       <c r="C242" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="D242" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.25">
@@ -7648,10 +7648,10 @@
         <v>253</v>
       </c>
       <c r="C243" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="D243" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.25">
@@ -7659,10 +7659,10 @@
         <v>254</v>
       </c>
       <c r="C244" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="D244" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.25">
@@ -7670,10 +7670,10 @@
         <v>255</v>
       </c>
       <c r="C245" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="D245" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.25">
@@ -7681,10 +7681,10 @@
         <v>256</v>
       </c>
       <c r="C246" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="D246" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.25">
@@ -7692,10 +7692,10 @@
         <v>257</v>
       </c>
       <c r="C247" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="D247" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.25">
@@ -7703,10 +7703,10 @@
         <v>258</v>
       </c>
       <c r="C248" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="D248" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.25">
@@ -7714,10 +7714,10 @@
         <v>259</v>
       </c>
       <c r="C249" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="D249" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.25">
@@ -7725,10 +7725,10 @@
         <v>260</v>
       </c>
       <c r="C250" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="D250" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.25">
@@ -7736,10 +7736,10 @@
         <v>261</v>
       </c>
       <c r="C251" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="D251" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.25">
@@ -7747,10 +7747,10 @@
         <v>262</v>
       </c>
       <c r="C252" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="D252" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.25">
@@ -7758,10 +7758,10 @@
         <v>263</v>
       </c>
       <c r="C253" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="D253" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.25">
@@ -7769,10 +7769,10 @@
         <v>264</v>
       </c>
       <c r="C254" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="D254" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.25">
@@ -7780,10 +7780,10 @@
         <v>265</v>
       </c>
       <c r="C255" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="D255" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.25">
@@ -7791,10 +7791,10 @@
         <v>266</v>
       </c>
       <c r="C256" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="D256" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.25">
@@ -7802,10 +7802,10 @@
         <v>267</v>
       </c>
       <c r="C257" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="D257" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.25">
@@ -7813,10 +7813,10 @@
         <v>268</v>
       </c>
       <c r="C258" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="D258" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.25">
@@ -7824,10 +7824,10 @@
         <v>269</v>
       </c>
       <c r="C259" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="D259" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.25">
@@ -7835,10 +7835,10 @@
         <v>270</v>
       </c>
       <c r="C260" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="D260" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.25">
@@ -7846,10 +7846,10 @@
         <v>271</v>
       </c>
       <c r="C261" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="D261" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.25">
@@ -7857,10 +7857,10 @@
         <v>272</v>
       </c>
       <c r="C262" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="D262" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.25">
@@ -7868,10 +7868,10 @@
         <v>273</v>
       </c>
       <c r="C263" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="D263" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.25">
@@ -7879,10 +7879,10 @@
         <v>274</v>
       </c>
       <c r="C264" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="D264" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.25">
@@ -7890,10 +7890,10 @@
         <v>275</v>
       </c>
       <c r="C265" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="D265" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.25">
@@ -7901,10 +7901,10 @@
         <v>276</v>
       </c>
       <c r="C266" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="D266" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.25">
@@ -7912,10 +7912,10 @@
         <v>277</v>
       </c>
       <c r="C267" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="D267" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.25">
@@ -7923,10 +7923,10 @@
         <v>278</v>
       </c>
       <c r="C268" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="D268" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.25">
@@ -7934,10 +7934,10 @@
         <v>279</v>
       </c>
       <c r="C269" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="D269" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.25">
@@ -7945,10 +7945,10 @@
         <v>280</v>
       </c>
       <c r="C270" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="D270" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.25">
@@ -7956,10 +7956,10 @@
         <v>281</v>
       </c>
       <c r="C271" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="D271" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.25">
@@ -7967,10 +7967,10 @@
         <v>282</v>
       </c>
       <c r="C272" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="D272" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.25">
@@ -7978,10 +7978,10 @@
         <v>283</v>
       </c>
       <c r="C273" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="D273" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.25">
@@ -7989,10 +7989,10 @@
         <v>284</v>
       </c>
       <c r="C274" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="D274" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.25">
@@ -8000,10 +8000,10 @@
         <v>285</v>
       </c>
       <c r="C275" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="D275" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.25">
@@ -8011,10 +8011,10 @@
         <v>286</v>
       </c>
       <c r="C276" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="D276" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.25">
@@ -8022,10 +8022,10 @@
         <v>287</v>
       </c>
       <c r="C277" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="D277" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.25">
@@ -8033,10 +8033,10 @@
         <v>288</v>
       </c>
       <c r="C278" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="D278" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.25">
@@ -8044,10 +8044,10 @@
         <v>289</v>
       </c>
       <c r="C279" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="D279" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.25">
@@ -8055,10 +8055,10 @@
         <v>290</v>
       </c>
       <c r="C280" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="D280" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.25">
@@ -8066,10 +8066,10 @@
         <v>291</v>
       </c>
       <c r="C281" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="D281" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.25">
@@ -8077,10 +8077,10 @@
         <v>292</v>
       </c>
       <c r="C282" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="D282" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.25">
@@ -8088,10 +8088,10 @@
         <v>293</v>
       </c>
       <c r="C283" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="D283" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.25">
@@ -8099,10 +8099,10 @@
         <v>294</v>
       </c>
       <c r="C284" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="D284" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.25">
@@ -8110,10 +8110,10 @@
         <v>295</v>
       </c>
       <c r="C285" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="D285" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.25">
@@ -8121,10 +8121,10 @@
         <v>296</v>
       </c>
       <c r="C286" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="D286" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.25">
@@ -8132,10 +8132,10 @@
         <v>297</v>
       </c>
       <c r="C287" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="D287" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.25">
@@ -8143,10 +8143,10 @@
         <v>298</v>
       </c>
       <c r="C288" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="D288" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.25">
@@ -8154,10 +8154,10 @@
         <v>299</v>
       </c>
       <c r="C289" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="D289" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.25">
@@ -8165,10 +8165,10 @@
         <v>300</v>
       </c>
       <c r="C290" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="D290" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.25">
@@ -8176,10 +8176,10 @@
         <v>301</v>
       </c>
       <c r="C291" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="D291" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.25">
@@ -8187,10 +8187,10 @@
         <v>302</v>
       </c>
       <c r="C292" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="D292" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.25">
@@ -8198,10 +8198,10 @@
         <v>303</v>
       </c>
       <c r="C293" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="D293" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.25">
@@ -8209,10 +8209,10 @@
         <v>304</v>
       </c>
       <c r="C294" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="D294" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.25">
@@ -8220,10 +8220,10 @@
         <v>305</v>
       </c>
       <c r="C295" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="D295" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.25">
@@ -8231,10 +8231,10 @@
         <v>306</v>
       </c>
       <c r="C296" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="D296" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.25">
@@ -8242,10 +8242,10 @@
         <v>307</v>
       </c>
       <c r="C297" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="D297" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.25">
@@ -8253,10 +8253,10 @@
         <v>308</v>
       </c>
       <c r="C298" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="D298" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.25">
@@ -8264,10 +8264,10 @@
         <v>309</v>
       </c>
       <c r="C299" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="D299" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.25">
@@ -8275,10 +8275,10 @@
         <v>310</v>
       </c>
       <c r="C300" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="D300" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.25">
@@ -8286,10 +8286,10 @@
         <v>311</v>
       </c>
       <c r="C301" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="D301" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.25">
@@ -8297,10 +8297,10 @@
         <v>312</v>
       </c>
       <c r="C302" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="D302" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.25">
@@ -8308,10 +8308,10 @@
         <v>313</v>
       </c>
       <c r="C303" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="D303" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.25">
@@ -8319,10 +8319,10 @@
         <v>314</v>
       </c>
       <c r="C304" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="D304" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.25">
@@ -8330,10 +8330,10 @@
         <v>315</v>
       </c>
       <c r="C305" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="D305" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.25">
@@ -8341,10 +8341,10 @@
         <v>316</v>
       </c>
       <c r="C306" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="D306" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.25">
@@ -8352,10 +8352,10 @@
         <v>317</v>
       </c>
       <c r="C307" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="D307" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.25">
@@ -8363,10 +8363,10 @@
         <v>318</v>
       </c>
       <c r="C308" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="D308" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.25">
@@ -8374,10 +8374,10 @@
         <v>319</v>
       </c>
       <c r="C309" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="D309" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.25">
@@ -8385,10 +8385,10 @@
         <v>320</v>
       </c>
       <c r="C310" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="D310" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.25">
@@ -8396,10 +8396,10 @@
         <v>321</v>
       </c>
       <c r="C311" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="D311" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.25">
@@ -8407,10 +8407,10 @@
         <v>322</v>
       </c>
       <c r="C312" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="D312" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.25">
@@ -8418,10 +8418,10 @@
         <v>323</v>
       </c>
       <c r="C313" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="D313" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.25">
@@ -8429,10 +8429,10 @@
         <v>324</v>
       </c>
       <c r="C314" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="D314" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.25">
@@ -8440,10 +8440,10 @@
         <v>325</v>
       </c>
       <c r="C315" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="D315" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.25">
@@ -8451,10 +8451,10 @@
         <v>326</v>
       </c>
       <c r="C316" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="D316" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.25">
@@ -8462,10 +8462,10 @@
         <v>327</v>
       </c>
       <c r="C317" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="D317" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.25">
@@ -8473,10 +8473,10 @@
         <v>328</v>
       </c>
       <c r="C318" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="D318" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.25">
@@ -8484,10 +8484,10 @@
         <v>329</v>
       </c>
       <c r="C319" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="D319" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.25">
@@ -8495,10 +8495,10 @@
         <v>330</v>
       </c>
       <c r="C320" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="D320" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.25">
@@ -8506,10 +8506,10 @@
         <v>331</v>
       </c>
       <c r="C321" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="D321" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.25">
@@ -8517,10 +8517,10 @@
         <v>332</v>
       </c>
       <c r="C322" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="D322" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.25">
@@ -8528,10 +8528,10 @@
         <v>333</v>
       </c>
       <c r="C323" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="D323" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.25">
@@ -8539,10 +8539,10 @@
         <v>334</v>
       </c>
       <c r="C324" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="D324" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.25">
@@ -8550,10 +8550,10 @@
         <v>335</v>
       </c>
       <c r="C325" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="D325" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.25">
@@ -8561,10 +8561,10 @@
         <v>336</v>
       </c>
       <c r="C326" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="D326" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.25">
@@ -8572,10 +8572,10 @@
         <v>337</v>
       </c>
       <c r="C327" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="D327" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.25">
@@ -8583,10 +8583,10 @@
         <v>338</v>
       </c>
       <c r="C328" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="D328" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.25">
@@ -8594,10 +8594,10 @@
         <v>339</v>
       </c>
       <c r="C329" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="D329" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.25">
@@ -8605,10 +8605,10 @@
         <v>340</v>
       </c>
       <c r="C330" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="D330" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.25">
@@ -8616,10 +8616,10 @@
         <v>341</v>
       </c>
       <c r="C331" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="D331" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.25">
@@ -8627,10 +8627,10 @@
         <v>342</v>
       </c>
       <c r="C332" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="D332" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.25">
@@ -8638,10 +8638,10 @@
         <v>343</v>
       </c>
       <c r="C333" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="D333" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.25">
@@ -8652,10 +8652,10 @@
         <v>5</v>
       </c>
       <c r="C334" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="D334" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.25">
@@ -8666,10 +8666,10 @@
         <v>5</v>
       </c>
       <c r="C335" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="D335" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.25">
@@ -8680,10 +8680,10 @@
         <v>5</v>
       </c>
       <c r="C336" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="D336" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.25">
@@ -8694,10 +8694,10 @@
         <v>5</v>
       </c>
       <c r="C337" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="D337" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.25">
@@ -8708,10 +8708,10 @@
         <v>5</v>
       </c>
       <c r="C338" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="D338" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.25">
@@ -8722,10 +8722,10 @@
         <v>5</v>
       </c>
       <c r="C339" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="D339" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.25">
@@ -8736,10 +8736,10 @@
         <v>5</v>
       </c>
       <c r="C340" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="D340" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.25">
@@ -8750,10 +8750,10 @@
         <v>5</v>
       </c>
       <c r="C341" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="D341" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.25">
@@ -8764,10 +8764,10 @@
         <v>5</v>
       </c>
       <c r="C342" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="D342" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.25">
@@ -8778,10 +8778,10 @@
         <v>5</v>
       </c>
       <c r="C343" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="D343" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.25">
@@ -8792,10 +8792,10 @@
         <v>5</v>
       </c>
       <c r="C344" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="D344" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.25">
@@ -8806,10 +8806,10 @@
         <v>5</v>
       </c>
       <c r="C345" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="D345" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.25">
@@ -8820,10 +8820,10 @@
         <v>5</v>
       </c>
       <c r="C346" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D346" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.25">
@@ -8834,10 +8834,10 @@
         <v>5</v>
       </c>
       <c r="C347" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D347" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.25">
@@ -8848,10 +8848,10 @@
         <v>5</v>
       </c>
       <c r="C348" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D348" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.25">
@@ -8862,10 +8862,10 @@
         <v>5</v>
       </c>
       <c r="C349" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D349" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.25">
@@ -8876,10 +8876,10 @@
         <v>5</v>
       </c>
       <c r="C350" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D350" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.25">
@@ -8890,10 +8890,10 @@
         <v>5</v>
       </c>
       <c r="C351" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D351" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.25">
@@ -8904,10 +8904,10 @@
         <v>5</v>
       </c>
       <c r="C352" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D352" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.25">
@@ -8918,10 +8918,10 @@
         <v>5</v>
       </c>
       <c r="C353" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D353" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.25">
@@ -8932,10 +8932,10 @@
         <v>5</v>
       </c>
       <c r="C354" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D354" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.25">
@@ -8946,10 +8946,10 @@
         <v>5</v>
       </c>
       <c r="C355" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D355" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.25">
@@ -8960,10 +8960,10 @@
         <v>5</v>
       </c>
       <c r="C356" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D356" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.25">
@@ -8974,10 +8974,10 @@
         <v>5</v>
       </c>
       <c r="C357" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D357" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.25">
@@ -8988,10 +8988,10 @@
         <v>5</v>
       </c>
       <c r="C358" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D358" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.25">
@@ -9002,10 +9002,10 @@
         <v>5</v>
       </c>
       <c r="C359" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D359" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.25">
@@ -9016,10 +9016,10 @@
         <v>5</v>
       </c>
       <c r="C360" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D360" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.25">
@@ -9030,10 +9030,10 @@
         <v>5</v>
       </c>
       <c r="C361" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D361" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.25">
@@ -9044,10 +9044,10 @@
         <v>5</v>
       </c>
       <c r="C362" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D362" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.25">
@@ -9058,10 +9058,10 @@
         <v>5</v>
       </c>
       <c r="C363" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D363" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.25">
@@ -9072,10 +9072,10 @@
         <v>5</v>
       </c>
       <c r="C364" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="D364" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.25">
@@ -9086,10 +9086,10 @@
         <v>5</v>
       </c>
       <c r="C365" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="D365" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.25">
@@ -9100,10 +9100,10 @@
         <v>5</v>
       </c>
       <c r="C366" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="D366" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.25">
@@ -9114,10 +9114,10 @@
         <v>5</v>
       </c>
       <c r="C367" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="D367" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.25">
@@ -9128,10 +9128,10 @@
         <v>5</v>
       </c>
       <c r="C368" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="D368" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.25">
@@ -9142,10 +9142,10 @@
         <v>5</v>
       </c>
       <c r="C369" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="D369" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.25">
@@ -9156,10 +9156,10 @@
         <v>5</v>
       </c>
       <c r="C370" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="D370" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.25">
@@ -9170,10 +9170,10 @@
         <v>5</v>
       </c>
       <c r="C371" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="D371" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.25">
@@ -9187,7 +9187,7 @@
         <v>28</v>
       </c>
       <c r="D372" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.25">
@@ -9198,10 +9198,10 @@
         <v>5</v>
       </c>
       <c r="C373" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="D373" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.25">
@@ -9212,10 +9212,10 @@
         <v>5</v>
       </c>
       <c r="C374" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="D374" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.25">
@@ -9226,10 +9226,10 @@
         <v>5</v>
       </c>
       <c r="C375" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="D375" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.25">
@@ -9243,7 +9243,7 @@
         <v>12</v>
       </c>
       <c r="D376" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.25">
@@ -9254,10 +9254,10 @@
         <v>5</v>
       </c>
       <c r="C377" t="s">
-        <v>729</v>
+        <v>1291</v>
       </c>
       <c r="D377" t="s">
-        <v>730</v>
+        <v>725</v>
       </c>
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.25">
@@ -9268,10 +9268,10 @@
         <v>5</v>
       </c>
       <c r="C378" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D378" t="s">
-        <v>732</v>
+        <v>727</v>
       </c>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.25">
@@ -9282,10 +9282,10 @@
         <v>5</v>
       </c>
       <c r="C379" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
       <c r="D379" t="s">
-        <v>734</v>
+        <v>729</v>
       </c>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.25">
@@ -9296,10 +9296,10 @@
         <v>5</v>
       </c>
       <c r="C380" t="s">
-        <v>735</v>
+        <v>730</v>
       </c>
       <c r="D380" t="s">
-        <v>736</v>
+        <v>731</v>
       </c>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.25">
@@ -9310,10 +9310,10 @@
         <v>5</v>
       </c>
       <c r="C381" t="s">
-        <v>737</v>
+        <v>732</v>
       </c>
       <c r="D381" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.25">
@@ -9324,10 +9324,10 @@
         <v>5</v>
       </c>
       <c r="C382" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
       <c r="D382" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.25">
@@ -9338,10 +9338,10 @@
         <v>5</v>
       </c>
       <c r="C383" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="D383" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.25">
@@ -9352,10 +9352,10 @@
         <v>5</v>
       </c>
       <c r="C384" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
       <c r="D384" t="s">
-        <v>744</v>
+        <v>739</v>
       </c>
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.25">
@@ -9366,10 +9366,10 @@
         <v>5</v>
       </c>
       <c r="C385" t="s">
-        <v>745</v>
+        <v>740</v>
       </c>
       <c r="D385" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.25">
@@ -9380,10 +9380,10 @@
         <v>5</v>
       </c>
       <c r="C386" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
       <c r="D386" t="s">
-        <v>748</v>
+        <v>743</v>
       </c>
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.25">
@@ -9394,10 +9394,10 @@
         <v>5</v>
       </c>
       <c r="C387" t="s">
-        <v>749</v>
+        <v>744</v>
       </c>
       <c r="D387" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.25">
@@ -9408,10 +9408,10 @@
         <v>5</v>
       </c>
       <c r="C388" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="D388" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.25">
@@ -9422,10 +9422,10 @@
         <v>5</v>
       </c>
       <c r="C389" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
       <c r="D389" t="s">
-        <v>754</v>
+        <v>749</v>
       </c>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.25">
@@ -9436,10 +9436,10 @@
         <v>5</v>
       </c>
       <c r="C390" t="s">
-        <v>755</v>
+        <v>750</v>
       </c>
       <c r="D390" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.25">
@@ -9450,10 +9450,10 @@
         <v>5</v>
       </c>
       <c r="C391" t="s">
-        <v>757</v>
+        <v>1292</v>
       </c>
       <c r="D391" t="s">
-        <v>758</v>
+        <v>752</v>
       </c>
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.25">
@@ -9464,10 +9464,10 @@
         <v>5</v>
       </c>
       <c r="C392" t="s">
-        <v>759</v>
+        <v>753</v>
       </c>
       <c r="D392" t="s">
-        <v>760</v>
+        <v>754</v>
       </c>
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.25">
@@ -9478,10 +9478,10 @@
         <v>5</v>
       </c>
       <c r="C393" t="s">
-        <v>761</v>
+        <v>755</v>
       </c>
       <c r="D393" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.25">
@@ -9492,10 +9492,10 @@
         <v>5</v>
       </c>
       <c r="C394" t="s">
-        <v>763</v>
+        <v>757</v>
       </c>
       <c r="D394" t="s">
-        <v>764</v>
+        <v>758</v>
       </c>
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.25">
@@ -9506,10 +9506,10 @@
         <v>5</v>
       </c>
       <c r="C395" t="s">
-        <v>765</v>
+        <v>759</v>
       </c>
       <c r="D395" t="s">
-        <v>766</v>
+        <v>760</v>
       </c>
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.25">
@@ -9520,10 +9520,10 @@
         <v>5</v>
       </c>
       <c r="C396" t="s">
-        <v>767</v>
+        <v>761</v>
       </c>
       <c r="D396" t="s">
-        <v>768</v>
+        <v>762</v>
       </c>
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.25">
@@ -9534,10 +9534,10 @@
         <v>5</v>
       </c>
       <c r="C397" t="s">
-        <v>769</v>
+        <v>763</v>
       </c>
       <c r="D397" t="s">
-        <v>770</v>
+        <v>764</v>
       </c>
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.25">
@@ -9548,10 +9548,10 @@
         <v>5</v>
       </c>
       <c r="C398" t="s">
-        <v>771</v>
+        <v>765</v>
       </c>
       <c r="D398" t="s">
-        <v>772</v>
+        <v>766</v>
       </c>
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.25">
@@ -9562,10 +9562,10 @@
         <v>5</v>
       </c>
       <c r="C399" t="s">
-        <v>773</v>
+        <v>767</v>
       </c>
       <c r="D399" t="s">
-        <v>774</v>
+        <v>768</v>
       </c>
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.25">
@@ -9576,10 +9576,10 @@
         <v>5</v>
       </c>
       <c r="C400" t="s">
-        <v>775</v>
+        <v>769</v>
       </c>
       <c r="D400" t="s">
-        <v>776</v>
+        <v>770</v>
       </c>
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.25">
@@ -9590,10 +9590,10 @@
         <v>5</v>
       </c>
       <c r="C401" t="s">
-        <v>777</v>
+        <v>771</v>
       </c>
       <c r="D401" t="s">
-        <v>778</v>
+        <v>772</v>
       </c>
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.25">
@@ -9604,10 +9604,10 @@
         <v>5</v>
       </c>
       <c r="C402" t="s">
-        <v>779</v>
+        <v>773</v>
       </c>
       <c r="D402" t="s">
-        <v>780</v>
+        <v>774</v>
       </c>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.25">
@@ -9618,10 +9618,10 @@
         <v>5</v>
       </c>
       <c r="C403" t="s">
-        <v>781</v>
+        <v>775</v>
       </c>
       <c r="D403" t="s">
-        <v>782</v>
+        <v>776</v>
       </c>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.25">
@@ -9632,10 +9632,10 @@
         <v>5</v>
       </c>
       <c r="C404" t="s">
-        <v>783</v>
+        <v>777</v>
       </c>
       <c r="D404" t="s">
-        <v>784</v>
+        <v>778</v>
       </c>
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.25">
@@ -9646,10 +9646,10 @@
         <v>5</v>
       </c>
       <c r="C405" t="s">
-        <v>785</v>
+        <v>779</v>
       </c>
       <c r="D405" t="s">
-        <v>786</v>
+        <v>780</v>
       </c>
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.25">
@@ -9660,10 +9660,10 @@
         <v>5</v>
       </c>
       <c r="C406" t="s">
-        <v>787</v>
+        <v>781</v>
       </c>
       <c r="D406" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.25">
@@ -9674,10 +9674,10 @@
         <v>5</v>
       </c>
       <c r="C407" t="s">
-        <v>789</v>
+        <v>783</v>
       </c>
       <c r="D407" t="s">
-        <v>790</v>
+        <v>784</v>
       </c>
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.25">
@@ -9688,10 +9688,10 @@
         <v>5</v>
       </c>
       <c r="C408" t="s">
-        <v>791</v>
+        <v>785</v>
       </c>
       <c r="D408" t="s">
-        <v>792</v>
+        <v>786</v>
       </c>
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.25">
@@ -9702,10 +9702,10 @@
         <v>5</v>
       </c>
       <c r="C409" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="D409" t="s">
-        <v>794</v>
+        <v>788</v>
       </c>
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.25">
@@ -9716,10 +9716,10 @@
         <v>5</v>
       </c>
       <c r="C410" t="s">
-        <v>795</v>
+        <v>789</v>
       </c>
       <c r="D410" t="s">
-        <v>796</v>
+        <v>790</v>
       </c>
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.25">
@@ -9730,10 +9730,10 @@
         <v>5</v>
       </c>
       <c r="C411" t="s">
-        <v>797</v>
+        <v>791</v>
       </c>
       <c r="D411" t="s">
-        <v>798</v>
+        <v>792</v>
       </c>
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.25">
@@ -9744,10 +9744,10 @@
         <v>5</v>
       </c>
       <c r="C412" t="s">
-        <v>799</v>
+        <v>793</v>
       </c>
       <c r="D412" t="s">
-        <v>800</v>
+        <v>794</v>
       </c>
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.25">
@@ -9758,10 +9758,10 @@
         <v>5</v>
       </c>
       <c r="C413" t="s">
-        <v>801</v>
+        <v>795</v>
       </c>
       <c r="D413" t="s">
-        <v>802</v>
+        <v>796</v>
       </c>
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.25">
@@ -9772,10 +9772,10 @@
         <v>5</v>
       </c>
       <c r="C414" t="s">
-        <v>803</v>
+        <v>797</v>
       </c>
       <c r="D414" t="s">
-        <v>804</v>
+        <v>798</v>
       </c>
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.25">
@@ -9786,10 +9786,10 @@
         <v>5</v>
       </c>
       <c r="C415" t="s">
-        <v>805</v>
+        <v>799</v>
       </c>
       <c r="D415" t="s">
-        <v>806</v>
+        <v>800</v>
       </c>
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.25">
@@ -9800,10 +9800,10 @@
         <v>5</v>
       </c>
       <c r="C416" t="s">
-        <v>807</v>
+        <v>801</v>
       </c>
       <c r="D416" t="s">
-        <v>808</v>
+        <v>802</v>
       </c>
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.25">
@@ -9814,10 +9814,10 @@
         <v>5</v>
       </c>
       <c r="C417" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
       <c r="D417" t="s">
-        <v>810</v>
+        <v>804</v>
       </c>
     </row>
     <row r="418" spans="1:4" x14ac:dyDescent="0.25">
@@ -9828,10 +9828,10 @@
         <v>5</v>
       </c>
       <c r="C418" t="s">
-        <v>811</v>
+        <v>805</v>
       </c>
       <c r="D418" t="s">
-        <v>812</v>
+        <v>806</v>
       </c>
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.25">
@@ -9842,10 +9842,10 @@
         <v>3</v>
       </c>
       <c r="C419" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="D419" t="s">
-        <v>814</v>
+        <v>808</v>
       </c>
     </row>
     <row r="420" spans="1:4" x14ac:dyDescent="0.25">
@@ -9856,10 +9856,10 @@
         <v>3</v>
       </c>
       <c r="C420" t="s">
-        <v>815</v>
+        <v>809</v>
       </c>
       <c r="D420" t="s">
-        <v>816</v>
+        <v>810</v>
       </c>
     </row>
     <row r="421" spans="1:4" x14ac:dyDescent="0.25">
@@ -9870,10 +9870,10 @@
         <v>3</v>
       </c>
       <c r="C421" t="s">
-        <v>817</v>
+        <v>811</v>
       </c>
       <c r="D421" t="s">
-        <v>818</v>
+        <v>812</v>
       </c>
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.25">
@@ -9884,10 +9884,10 @@
         <v>3</v>
       </c>
       <c r="C422" t="s">
-        <v>819</v>
+        <v>813</v>
       </c>
       <c r="D422" t="s">
-        <v>820</v>
+        <v>814</v>
       </c>
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.25">
@@ -9898,10 +9898,10 @@
         <v>3</v>
       </c>
       <c r="C423" t="s">
-        <v>821</v>
+        <v>815</v>
       </c>
       <c r="D423" t="s">
-        <v>822</v>
+        <v>816</v>
       </c>
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.25">
@@ -9912,10 +9912,10 @@
         <v>3</v>
       </c>
       <c r="C424" t="s">
-        <v>823</v>
+        <v>817</v>
       </c>
       <c r="D424" t="s">
-        <v>824</v>
+        <v>818</v>
       </c>
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.25">
@@ -9926,10 +9926,10 @@
         <v>3</v>
       </c>
       <c r="C425" t="s">
-        <v>825</v>
+        <v>819</v>
       </c>
       <c r="D425" t="s">
-        <v>826</v>
+        <v>820</v>
       </c>
     </row>
     <row r="426" spans="1:4" x14ac:dyDescent="0.25">
@@ -9940,10 +9940,10 @@
         <v>3</v>
       </c>
       <c r="C426" t="s">
-        <v>827</v>
+        <v>821</v>
       </c>
       <c r="D426" t="s">
-        <v>828</v>
+        <v>822</v>
       </c>
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.25">
@@ -9954,10 +9954,10 @@
         <v>3</v>
       </c>
       <c r="C427" t="s">
-        <v>829</v>
+        <v>823</v>
       </c>
       <c r="D427" t="s">
-        <v>830</v>
+        <v>824</v>
       </c>
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.25">
@@ -9968,10 +9968,10 @@
         <v>3</v>
       </c>
       <c r="C428" t="s">
-        <v>831</v>
+        <v>825</v>
       </c>
       <c r="D428" t="s">
-        <v>832</v>
+        <v>826</v>
       </c>
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.25">
@@ -9982,10 +9982,10 @@
         <v>3</v>
       </c>
       <c r="C429" t="s">
-        <v>833</v>
+        <v>827</v>
       </c>
       <c r="D429" t="s">
-        <v>834</v>
+        <v>828</v>
       </c>
     </row>
     <row r="430" spans="1:4" x14ac:dyDescent="0.25">
@@ -9996,10 +9996,10 @@
         <v>3</v>
       </c>
       <c r="C430" t="s">
-        <v>835</v>
+        <v>829</v>
       </c>
       <c r="D430" t="s">
-        <v>836</v>
+        <v>830</v>
       </c>
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.25">
@@ -10010,10 +10010,10 @@
         <v>3</v>
       </c>
       <c r="C431" t="s">
-        <v>837</v>
+        <v>831</v>
       </c>
       <c r="D431" t="s">
-        <v>838</v>
+        <v>832</v>
       </c>
     </row>
     <row r="432" spans="1:4" x14ac:dyDescent="0.25">
@@ -10024,10 +10024,10 @@
         <v>3</v>
       </c>
       <c r="C432" t="s">
-        <v>839</v>
+        <v>833</v>
       </c>
       <c r="D432" t="s">
-        <v>840</v>
+        <v>834</v>
       </c>
     </row>
     <row r="433" spans="1:4" x14ac:dyDescent="0.25">
@@ -10038,10 +10038,10 @@
         <v>3</v>
       </c>
       <c r="C433" t="s">
-        <v>841</v>
+        <v>835</v>
       </c>
       <c r="D433" t="s">
-        <v>842</v>
+        <v>836</v>
       </c>
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.25">
@@ -10055,7 +10055,7 @@
         <v>28</v>
       </c>
       <c r="D434" t="s">
-        <v>843</v>
+        <v>837</v>
       </c>
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.25">
@@ -10066,10 +10066,10 @@
         <v>3</v>
       </c>
       <c r="C435" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="D435" t="s">
-        <v>845</v>
+        <v>839</v>
       </c>
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.25">
@@ -10080,10 +10080,10 @@
         <v>3</v>
       </c>
       <c r="C436" t="s">
-        <v>846</v>
+        <v>840</v>
       </c>
       <c r="D436" t="s">
-        <v>847</v>
+        <v>841</v>
       </c>
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.25">
@@ -10094,10 +10094,10 @@
         <v>3</v>
       </c>
       <c r="C437" t="s">
-        <v>848</v>
+        <v>842</v>
       </c>
       <c r="D437" t="s">
-        <v>849</v>
+        <v>843</v>
       </c>
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.25">
@@ -10108,10 +10108,10 @@
         <v>3</v>
       </c>
       <c r="C438" t="s">
-        <v>850</v>
+        <v>844</v>
       </c>
       <c r="D438" t="s">
-        <v>851</v>
+        <v>845</v>
       </c>
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.25">
@@ -10122,10 +10122,10 @@
         <v>3</v>
       </c>
       <c r="C439" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
       <c r="D439" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.25">
@@ -10136,10 +10136,10 @@
         <v>3</v>
       </c>
       <c r="C440" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="D440" t="s">
-        <v>855</v>
+        <v>849</v>
       </c>
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.25">
@@ -10150,10 +10150,10 @@
         <v>3</v>
       </c>
       <c r="C441" t="s">
-        <v>856</v>
+        <v>850</v>
       </c>
       <c r="D441" t="s">
-        <v>857</v>
+        <v>851</v>
       </c>
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.25">
@@ -10164,10 +10164,10 @@
         <v>3</v>
       </c>
       <c r="C442" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
       <c r="D442" t="s">
-        <v>859</v>
+        <v>853</v>
       </c>
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.25">
@@ -10178,10 +10178,10 @@
         <v>3</v>
       </c>
       <c r="C443" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="D443" t="s">
-        <v>861</v>
+        <v>855</v>
       </c>
     </row>
     <row r="444" spans="1:4" x14ac:dyDescent="0.25">
@@ -10192,10 +10192,10 @@
         <v>3</v>
       </c>
       <c r="C444" t="s">
-        <v>862</v>
+        <v>856</v>
       </c>
       <c r="D444" t="s">
-        <v>863</v>
+        <v>857</v>
       </c>
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.25">
@@ -10206,10 +10206,10 @@
         <v>3</v>
       </c>
       <c r="C445" t="s">
-        <v>864</v>
+        <v>858</v>
       </c>
       <c r="D445" t="s">
-        <v>865</v>
+        <v>859</v>
       </c>
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.25">
@@ -10220,10 +10220,10 @@
         <v>3</v>
       </c>
       <c r="C446" t="s">
-        <v>866</v>
+        <v>860</v>
       </c>
       <c r="D446" t="s">
-        <v>867</v>
+        <v>861</v>
       </c>
     </row>
     <row r="447" spans="1:4" x14ac:dyDescent="0.25">
@@ -10234,10 +10234,10 @@
         <v>3</v>
       </c>
       <c r="C447" t="s">
-        <v>868</v>
+        <v>862</v>
       </c>
       <c r="D447" t="s">
-        <v>869</v>
+        <v>863</v>
       </c>
     </row>
     <row r="448" spans="1:4" x14ac:dyDescent="0.25">
@@ -10248,10 +10248,10 @@
         <v>3</v>
       </c>
       <c r="C448" t="s">
-        <v>870</v>
+        <v>864</v>
       </c>
       <c r="D448" t="s">
-        <v>871</v>
+        <v>865</v>
       </c>
     </row>
     <row r="449" spans="1:4" x14ac:dyDescent="0.25">
@@ -10262,10 +10262,10 @@
         <v>3</v>
       </c>
       <c r="C449" t="s">
-        <v>872</v>
+        <v>866</v>
       </c>
       <c r="D449" t="s">
-        <v>873</v>
+        <v>867</v>
       </c>
     </row>
     <row r="450" spans="1:4" x14ac:dyDescent="0.25">
@@ -10276,10 +10276,10 @@
         <v>3</v>
       </c>
       <c r="C450" t="s">
-        <v>874</v>
+        <v>868</v>
       </c>
       <c r="D450" t="s">
-        <v>875</v>
+        <v>869</v>
       </c>
     </row>
     <row r="451" spans="1:4" x14ac:dyDescent="0.25">
@@ -10290,10 +10290,10 @@
         <v>3</v>
       </c>
       <c r="C451" t="s">
-        <v>876</v>
+        <v>870</v>
       </c>
       <c r="D451" t="s">
-        <v>877</v>
+        <v>871</v>
       </c>
     </row>
     <row r="452" spans="1:4" x14ac:dyDescent="0.25">
@@ -10304,10 +10304,10 @@
         <v>3</v>
       </c>
       <c r="C452" t="s">
-        <v>878</v>
+        <v>872</v>
       </c>
       <c r="D452" t="s">
-        <v>879</v>
+        <v>873</v>
       </c>
     </row>
     <row r="453" spans="1:4" x14ac:dyDescent="0.25">
@@ -10318,10 +10318,10 @@
         <v>3</v>
       </c>
       <c r="C453" t="s">
-        <v>880</v>
+        <v>874</v>
       </c>
       <c r="D453" t="s">
-        <v>881</v>
+        <v>875</v>
       </c>
     </row>
     <row r="454" spans="1:4" x14ac:dyDescent="0.25">
@@ -10332,10 +10332,10 @@
         <v>3</v>
       </c>
       <c r="C454" t="s">
-        <v>882</v>
+        <v>876</v>
       </c>
       <c r="D454" t="s">
-        <v>883</v>
+        <v>877</v>
       </c>
     </row>
     <row r="455" spans="1:4" x14ac:dyDescent="0.25">
@@ -10346,10 +10346,10 @@
         <v>3</v>
       </c>
       <c r="C455" t="s">
-        <v>884</v>
+        <v>878</v>
       </c>
       <c r="D455" t="s">
-        <v>885</v>
+        <v>879</v>
       </c>
     </row>
     <row r="456" spans="1:4" x14ac:dyDescent="0.25">
@@ -10360,10 +10360,10 @@
         <v>3</v>
       </c>
       <c r="C456" t="s">
-        <v>886</v>
+        <v>880</v>
       </c>
       <c r="D456" t="s">
-        <v>887</v>
+        <v>881</v>
       </c>
     </row>
     <row r="457" spans="1:4" x14ac:dyDescent="0.25">
@@ -10374,10 +10374,10 @@
         <v>3</v>
       </c>
       <c r="C457" t="s">
-        <v>888</v>
+        <v>882</v>
       </c>
       <c r="D457" t="s">
-        <v>889</v>
+        <v>883</v>
       </c>
     </row>
     <row r="458" spans="1:4" x14ac:dyDescent="0.25">
@@ -10388,10 +10388,10 @@
         <v>3</v>
       </c>
       <c r="C458" t="s">
-        <v>890</v>
+        <v>884</v>
       </c>
       <c r="D458" t="s">
-        <v>891</v>
+        <v>885</v>
       </c>
     </row>
     <row r="459" spans="1:4" x14ac:dyDescent="0.25">
@@ -10402,10 +10402,10 @@
         <v>3</v>
       </c>
       <c r="C459" t="s">
-        <v>892</v>
+        <v>886</v>
       </c>
       <c r="D459" t="s">
-        <v>893</v>
+        <v>887</v>
       </c>
     </row>
     <row r="460" spans="1:4" x14ac:dyDescent="0.25">
@@ -10416,10 +10416,10 @@
         <v>3</v>
       </c>
       <c r="C460" t="s">
-        <v>894</v>
+        <v>888</v>
       </c>
       <c r="D460" t="s">
-        <v>895</v>
+        <v>889</v>
       </c>
     </row>
     <row r="461" spans="1:4" x14ac:dyDescent="0.25">
@@ -10430,10 +10430,10 @@
         <v>3</v>
       </c>
       <c r="C461" t="s">
-        <v>896</v>
+        <v>890</v>
       </c>
       <c r="D461" t="s">
-        <v>897</v>
+        <v>891</v>
       </c>
     </row>
     <row r="462" spans="1:4" x14ac:dyDescent="0.25">
@@ -10444,10 +10444,10 @@
         <v>3</v>
       </c>
       <c r="C462" t="s">
-        <v>898</v>
+        <v>892</v>
       </c>
       <c r="D462" t="s">
-        <v>899</v>
+        <v>893</v>
       </c>
     </row>
     <row r="463" spans="1:4" x14ac:dyDescent="0.25">
@@ -10458,10 +10458,10 @@
         <v>3</v>
       </c>
       <c r="C463" t="s">
-        <v>900</v>
+        <v>894</v>
       </c>
       <c r="D463" t="s">
-        <v>901</v>
+        <v>895</v>
       </c>
     </row>
     <row r="464" spans="1:4" x14ac:dyDescent="0.25">
@@ -10472,10 +10472,10 @@
         <v>3</v>
       </c>
       <c r="C464" t="s">
-        <v>902</v>
+        <v>896</v>
       </c>
       <c r="D464" t="s">
-        <v>903</v>
+        <v>897</v>
       </c>
     </row>
     <row r="465" spans="1:4" x14ac:dyDescent="0.25">
@@ -10486,10 +10486,10 @@
         <v>3</v>
       </c>
       <c r="C465" t="s">
-        <v>904</v>
+        <v>898</v>
       </c>
       <c r="D465" t="s">
-        <v>905</v>
+        <v>899</v>
       </c>
     </row>
     <row r="466" spans="1:4" x14ac:dyDescent="0.25">
@@ -10500,10 +10500,10 @@
         <v>3</v>
       </c>
       <c r="C466" t="s">
-        <v>906</v>
+        <v>900</v>
       </c>
       <c r="D466" t="s">
-        <v>907</v>
+        <v>901</v>
       </c>
     </row>
     <row r="467" spans="1:4" x14ac:dyDescent="0.25">
@@ -10514,10 +10514,10 @@
         <v>3</v>
       </c>
       <c r="C467" t="s">
-        <v>908</v>
+        <v>902</v>
       </c>
       <c r="D467" t="s">
-        <v>909</v>
+        <v>903</v>
       </c>
     </row>
     <row r="468" spans="1:4" x14ac:dyDescent="0.25">
@@ -10528,10 +10528,10 @@
         <v>3</v>
       </c>
       <c r="C468" t="s">
-        <v>910</v>
+        <v>904</v>
       </c>
       <c r="D468" t="s">
-        <v>911</v>
+        <v>905</v>
       </c>
     </row>
     <row r="469" spans="1:4" x14ac:dyDescent="0.25">
@@ -10542,10 +10542,10 @@
         <v>3</v>
       </c>
       <c r="C469" t="s">
-        <v>912</v>
+        <v>906</v>
       </c>
       <c r="D469" t="s">
-        <v>913</v>
+        <v>907</v>
       </c>
     </row>
     <row r="470" spans="1:4" x14ac:dyDescent="0.25">
@@ -10556,10 +10556,10 @@
         <v>3</v>
       </c>
       <c r="C470" t="s">
-        <v>914</v>
+        <v>908</v>
       </c>
       <c r="D470" t="s">
-        <v>915</v>
+        <v>909</v>
       </c>
     </row>
     <row r="471" spans="1:4" x14ac:dyDescent="0.25">
@@ -10570,10 +10570,10 @@
         <v>3</v>
       </c>
       <c r="C471" t="s">
-        <v>916</v>
+        <v>910</v>
       </c>
       <c r="D471" t="s">
-        <v>917</v>
+        <v>911</v>
       </c>
     </row>
     <row r="472" spans="1:4" x14ac:dyDescent="0.25">
@@ -10584,10 +10584,10 @@
         <v>3</v>
       </c>
       <c r="C472" t="s">
-        <v>918</v>
+        <v>912</v>
       </c>
       <c r="D472" t="s">
-        <v>919</v>
+        <v>913</v>
       </c>
     </row>
     <row r="473" spans="1:4" x14ac:dyDescent="0.25">
@@ -10598,10 +10598,10 @@
         <v>3</v>
       </c>
       <c r="C473" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D473" t="s">
-        <v>920</v>
+        <v>914</v>
       </c>
     </row>
     <row r="474" spans="1:4" x14ac:dyDescent="0.25">
@@ -10612,10 +10612,10 @@
         <v>3</v>
       </c>
       <c r="C474" t="s">
-        <v>921</v>
+        <v>915</v>
       </c>
       <c r="D474" t="s">
-        <v>922</v>
+        <v>916</v>
       </c>
     </row>
     <row r="475" spans="1:4" x14ac:dyDescent="0.25">
@@ -10626,10 +10626,10 @@
         <v>3</v>
       </c>
       <c r="C475" t="s">
-        <v>923</v>
+        <v>917</v>
       </c>
       <c r="D475" t="s">
-        <v>924</v>
+        <v>918</v>
       </c>
     </row>
     <row r="476" spans="1:4" x14ac:dyDescent="0.25">
@@ -10640,10 +10640,10 @@
         <v>3</v>
       </c>
       <c r="C476" t="s">
-        <v>925</v>
+        <v>919</v>
       </c>
       <c r="D476" t="s">
-        <v>926</v>
+        <v>920</v>
       </c>
     </row>
     <row r="477" spans="1:4" x14ac:dyDescent="0.25">
@@ -10654,10 +10654,10 @@
         <v>3</v>
       </c>
       <c r="C477" t="s">
-        <v>927</v>
+        <v>921</v>
       </c>
       <c r="D477" t="s">
-        <v>928</v>
+        <v>922</v>
       </c>
     </row>
     <row r="478" spans="1:4" x14ac:dyDescent="0.25">
@@ -10668,10 +10668,10 @@
         <v>3</v>
       </c>
       <c r="C478" t="s">
-        <v>929</v>
+        <v>923</v>
       </c>
       <c r="D478" t="s">
-        <v>930</v>
+        <v>924</v>
       </c>
     </row>
     <row r="479" spans="1:4" x14ac:dyDescent="0.25">
@@ -10682,10 +10682,10 @@
         <v>3</v>
       </c>
       <c r="C479" t="s">
-        <v>931</v>
+        <v>925</v>
       </c>
       <c r="D479" t="s">
-        <v>932</v>
+        <v>926</v>
       </c>
     </row>
     <row r="480" spans="1:4" x14ac:dyDescent="0.25">
@@ -10696,10 +10696,10 @@
         <v>3</v>
       </c>
       <c r="C480" t="s">
-        <v>933</v>
+        <v>927</v>
       </c>
       <c r="D480" t="s">
-        <v>934</v>
+        <v>928</v>
       </c>
     </row>
     <row r="481" spans="1:4" x14ac:dyDescent="0.25">
@@ -10710,10 +10710,10 @@
         <v>1</v>
       </c>
       <c r="C481" t="s">
-        <v>935</v>
+        <v>929</v>
       </c>
       <c r="D481" t="s">
-        <v>936</v>
+        <v>930</v>
       </c>
     </row>
     <row r="482" spans="1:4" x14ac:dyDescent="0.25">
@@ -10724,10 +10724,10 @@
         <v>1</v>
       </c>
       <c r="C482" t="s">
-        <v>937</v>
+        <v>931</v>
       </c>
       <c r="D482" t="s">
-        <v>938</v>
+        <v>932</v>
       </c>
     </row>
     <row r="483" spans="1:4" x14ac:dyDescent="0.25">
@@ -10738,10 +10738,10 @@
         <v>1</v>
       </c>
       <c r="C483" t="s">
-        <v>939</v>
+        <v>933</v>
       </c>
       <c r="D483" t="s">
-        <v>940</v>
+        <v>934</v>
       </c>
     </row>
     <row r="484" spans="1:4" x14ac:dyDescent="0.25">
@@ -10752,10 +10752,10 @@
         <v>1</v>
       </c>
       <c r="C484" t="s">
-        <v>941</v>
+        <v>935</v>
       </c>
       <c r="D484" t="s">
-        <v>942</v>
+        <v>936</v>
       </c>
     </row>
     <row r="485" spans="1:4" x14ac:dyDescent="0.25">
@@ -10766,10 +10766,10 @@
         <v>1</v>
       </c>
       <c r="C485" t="s">
-        <v>943</v>
+        <v>937</v>
       </c>
       <c r="D485" t="s">
-        <v>944</v>
+        <v>938</v>
       </c>
     </row>
     <row r="486" spans="1:4" x14ac:dyDescent="0.25">
@@ -10780,10 +10780,10 @@
         <v>1</v>
       </c>
       <c r="C486" t="s">
-        <v>945</v>
+        <v>939</v>
       </c>
       <c r="D486" t="s">
-        <v>946</v>
+        <v>940</v>
       </c>
     </row>
     <row r="487" spans="1:4" x14ac:dyDescent="0.25">
@@ -10794,10 +10794,10 @@
         <v>1</v>
       </c>
       <c r="C487" t="s">
-        <v>947</v>
+        <v>941</v>
       </c>
       <c r="D487" t="s">
-        <v>948</v>
+        <v>942</v>
       </c>
     </row>
     <row r="488" spans="1:4" x14ac:dyDescent="0.25">
@@ -10808,10 +10808,10 @@
         <v>1</v>
       </c>
       <c r="C488" t="s">
-        <v>949</v>
+        <v>943</v>
       </c>
       <c r="D488" t="s">
-        <v>950</v>
+        <v>944</v>
       </c>
     </row>
     <row r="489" spans="1:4" x14ac:dyDescent="0.25">
@@ -10822,10 +10822,10 @@
         <v>1</v>
       </c>
       <c r="C489" t="s">
-        <v>951</v>
+        <v>945</v>
       </c>
       <c r="D489" t="s">
-        <v>952</v>
+        <v>946</v>
       </c>
     </row>
     <row r="490" spans="1:4" x14ac:dyDescent="0.25">
@@ -10836,10 +10836,10 @@
         <v>1</v>
       </c>
       <c r="C490" t="s">
-        <v>953</v>
+        <v>947</v>
       </c>
       <c r="D490" t="s">
-        <v>954</v>
+        <v>948</v>
       </c>
     </row>
     <row r="491" spans="1:4" x14ac:dyDescent="0.25">
@@ -10850,10 +10850,10 @@
         <v>1</v>
       </c>
       <c r="C491" t="s">
-        <v>955</v>
+        <v>949</v>
       </c>
       <c r="D491" t="s">
-        <v>956</v>
+        <v>950</v>
       </c>
     </row>
     <row r="492" spans="1:4" x14ac:dyDescent="0.25">
@@ -10864,10 +10864,10 @@
         <v>1</v>
       </c>
       <c r="C492" t="s">
-        <v>957</v>
+        <v>951</v>
       </c>
       <c r="D492" t="s">
-        <v>958</v>
+        <v>952</v>
       </c>
     </row>
     <row r="493" spans="1:4" x14ac:dyDescent="0.25">
@@ -10878,10 +10878,10 @@
         <v>1</v>
       </c>
       <c r="C493" t="s">
-        <v>959</v>
+        <v>953</v>
       </c>
       <c r="D493" t="s">
-        <v>960</v>
+        <v>954</v>
       </c>
     </row>
     <row r="494" spans="1:4" x14ac:dyDescent="0.25">
@@ -10892,10 +10892,10 @@
         <v>1</v>
       </c>
       <c r="C494" t="s">
-        <v>961</v>
+        <v>955</v>
       </c>
       <c r="D494" t="s">
-        <v>962</v>
+        <v>956</v>
       </c>
     </row>
     <row r="495" spans="1:4" x14ac:dyDescent="0.25">
@@ -10906,10 +10906,10 @@
         <v>1</v>
       </c>
       <c r="C495" t="s">
-        <v>963</v>
+        <v>957</v>
       </c>
       <c r="D495" t="s">
-        <v>964</v>
+        <v>958</v>
       </c>
     </row>
     <row r="496" spans="1:4" x14ac:dyDescent="0.25">
@@ -10920,10 +10920,10 @@
         <v>1</v>
       </c>
       <c r="C496" t="s">
-        <v>965</v>
+        <v>959</v>
       </c>
       <c r="D496" t="s">
-        <v>966</v>
+        <v>960</v>
       </c>
     </row>
     <row r="497" spans="1:4" x14ac:dyDescent="0.25">
@@ -10934,10 +10934,10 @@
         <v>1</v>
       </c>
       <c r="C497" t="s">
-        <v>967</v>
+        <v>961</v>
       </c>
       <c r="D497" t="s">
-        <v>968</v>
+        <v>962</v>
       </c>
     </row>
     <row r="498" spans="1:4" x14ac:dyDescent="0.25">
@@ -10948,10 +10948,10 @@
         <v>1</v>
       </c>
       <c r="C498" t="s">
-        <v>969</v>
+        <v>963</v>
       </c>
       <c r="D498" t="s">
-        <v>970</v>
+        <v>964</v>
       </c>
     </row>
     <row r="499" spans="1:4" x14ac:dyDescent="0.25">
@@ -10962,10 +10962,10 @@
         <v>1</v>
       </c>
       <c r="C499" t="s">
-        <v>971</v>
+        <v>965</v>
       </c>
       <c r="D499" t="s">
-        <v>972</v>
+        <v>966</v>
       </c>
     </row>
     <row r="500" spans="1:4" x14ac:dyDescent="0.25">
@@ -10976,10 +10976,10 @@
         <v>1</v>
       </c>
       <c r="C500" t="s">
-        <v>973</v>
+        <v>967</v>
       </c>
       <c r="D500" t="s">
-        <v>974</v>
+        <v>968</v>
       </c>
     </row>
     <row r="501" spans="1:4" x14ac:dyDescent="0.25">
@@ -10990,10 +10990,10 @@
         <v>1</v>
       </c>
       <c r="C501" t="s">
-        <v>975</v>
+        <v>969</v>
       </c>
       <c r="D501" t="s">
-        <v>976</v>
+        <v>970</v>
       </c>
     </row>
     <row r="502" spans="1:4" x14ac:dyDescent="0.25">
@@ -11004,10 +11004,10 @@
         <v>1</v>
       </c>
       <c r="C502" t="s">
-        <v>977</v>
+        <v>971</v>
       </c>
       <c r="D502" t="s">
-        <v>978</v>
+        <v>972</v>
       </c>
     </row>
     <row r="503" spans="1:4" x14ac:dyDescent="0.25">
@@ -11018,10 +11018,10 @@
         <v>1</v>
       </c>
       <c r="C503" t="s">
-        <v>979</v>
+        <v>973</v>
       </c>
       <c r="D503" t="s">
-        <v>980</v>
+        <v>974</v>
       </c>
     </row>
     <row r="504" spans="1:4" x14ac:dyDescent="0.25">
@@ -11032,10 +11032,10 @@
         <v>1</v>
       </c>
       <c r="C504" t="s">
-        <v>981</v>
+        <v>975</v>
       </c>
       <c r="D504" t="s">
-        <v>982</v>
+        <v>976</v>
       </c>
     </row>
     <row r="505" spans="1:4" x14ac:dyDescent="0.25">
@@ -11046,10 +11046,10 @@
         <v>1</v>
       </c>
       <c r="C505" t="s">
-        <v>983</v>
+        <v>977</v>
       </c>
       <c r="D505" t="s">
-        <v>984</v>
+        <v>978</v>
       </c>
     </row>
     <row r="506" spans="1:4" x14ac:dyDescent="0.25">
@@ -11060,10 +11060,10 @@
         <v>1</v>
       </c>
       <c r="C506" t="s">
-        <v>985</v>
+        <v>979</v>
       </c>
       <c r="D506" t="s">
-        <v>986</v>
+        <v>980</v>
       </c>
     </row>
     <row r="507" spans="1:4" x14ac:dyDescent="0.25">
@@ -11074,10 +11074,10 @@
         <v>1</v>
       </c>
       <c r="C507" t="s">
-        <v>987</v>
+        <v>981</v>
       </c>
       <c r="D507" t="s">
-        <v>988</v>
+        <v>982</v>
       </c>
     </row>
     <row r="508" spans="1:4" x14ac:dyDescent="0.25">
@@ -11088,10 +11088,10 @@
         <v>1</v>
       </c>
       <c r="C508" t="s">
-        <v>989</v>
+        <v>983</v>
       </c>
       <c r="D508" t="s">
-        <v>990</v>
+        <v>984</v>
       </c>
     </row>
     <row r="509" spans="1:4" x14ac:dyDescent="0.25">
@@ -11102,10 +11102,10 @@
         <v>1</v>
       </c>
       <c r="C509" t="s">
-        <v>991</v>
+        <v>985</v>
       </c>
       <c r="D509" t="s">
-        <v>992</v>
+        <v>986</v>
       </c>
     </row>
     <row r="510" spans="1:4" x14ac:dyDescent="0.25">
@@ -11116,10 +11116,10 @@
         <v>1</v>
       </c>
       <c r="C510" t="s">
-        <v>993</v>
+        <v>987</v>
       </c>
       <c r="D510" t="s">
-        <v>994</v>
+        <v>988</v>
       </c>
     </row>
     <row r="511" spans="1:4" x14ac:dyDescent="0.25">
@@ -11130,10 +11130,10 @@
         <v>1</v>
       </c>
       <c r="C511" t="s">
-        <v>995</v>
+        <v>989</v>
       </c>
       <c r="D511" t="s">
-        <v>996</v>
+        <v>990</v>
       </c>
     </row>
     <row r="512" spans="1:4" x14ac:dyDescent="0.25">
@@ -11144,10 +11144,10 @@
         <v>1</v>
       </c>
       <c r="C512" t="s">
-        <v>997</v>
+        <v>991</v>
       </c>
       <c r="D512" t="s">
-        <v>998</v>
+        <v>992</v>
       </c>
     </row>
     <row r="513" spans="1:4" x14ac:dyDescent="0.25">
@@ -11158,10 +11158,10 @@
         <v>1</v>
       </c>
       <c r="C513" t="s">
-        <v>999</v>
+        <v>993</v>
       </c>
       <c r="D513" t="s">
-        <v>1000</v>
+        <v>994</v>
       </c>
     </row>
     <row r="514" spans="1:4" x14ac:dyDescent="0.25">
@@ -11172,10 +11172,10 @@
         <v>1</v>
       </c>
       <c r="C514" t="s">
-        <v>933</v>
+        <v>927</v>
       </c>
       <c r="D514" t="s">
-        <v>1001</v>
+        <v>995</v>
       </c>
     </row>
     <row r="515" spans="1:4" x14ac:dyDescent="0.25">
@@ -11186,10 +11186,10 @@
         <v>5</v>
       </c>
       <c r="C515" t="s">
-        <v>1002</v>
+        <v>996</v>
       </c>
       <c r="D515" t="s">
-        <v>1003</v>
+        <v>997</v>
       </c>
     </row>
     <row r="516" spans="1:4" x14ac:dyDescent="0.25">
@@ -11200,10 +11200,10 @@
         <v>5</v>
       </c>
       <c r="C516" t="s">
-        <v>1004</v>
+        <v>998</v>
       </c>
       <c r="D516" t="s">
-        <v>1005</v>
+        <v>999</v>
       </c>
     </row>
     <row r="517" spans="1:4" x14ac:dyDescent="0.25">
@@ -11214,10 +11214,10 @@
         <v>5</v>
       </c>
       <c r="C517" t="s">
-        <v>1006</v>
+        <v>1000</v>
       </c>
       <c r="D517" t="s">
-        <v>1007</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="518" spans="1:4" x14ac:dyDescent="0.25">
@@ -11228,10 +11228,10 @@
         <v>5</v>
       </c>
       <c r="C518" t="s">
-        <v>1008</v>
+        <v>1002</v>
       </c>
       <c r="D518" t="s">
-        <v>1009</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="519" spans="1:4" x14ac:dyDescent="0.25">
@@ -11242,10 +11242,10 @@
         <v>5</v>
       </c>
       <c r="C519" t="s">
-        <v>1010</v>
+        <v>1004</v>
       </c>
       <c r="D519" t="s">
-        <v>1011</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="520" spans="1:4" x14ac:dyDescent="0.25">
@@ -11256,10 +11256,10 @@
         <v>5</v>
       </c>
       <c r="C520" t="s">
-        <v>1012</v>
+        <v>1006</v>
       </c>
       <c r="D520" t="s">
-        <v>1013</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="521" spans="1:4" x14ac:dyDescent="0.25">
@@ -11270,10 +11270,10 @@
         <v>5</v>
       </c>
       <c r="C521" t="s">
-        <v>1014</v>
+        <v>1008</v>
       </c>
       <c r="D521" t="s">
-        <v>1015</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="522" spans="1:4" x14ac:dyDescent="0.25">
@@ -11284,10 +11284,10 @@
         <v>5</v>
       </c>
       <c r="C522" t="s">
-        <v>1016</v>
+        <v>1010</v>
       </c>
       <c r="D522" t="s">
-        <v>1017</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="523" spans="1:4" x14ac:dyDescent="0.25">
@@ -11298,10 +11298,10 @@
         <v>5</v>
       </c>
       <c r="C523" t="s">
-        <v>1018</v>
+        <v>1012</v>
       </c>
       <c r="D523" t="s">
-        <v>1019</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="524" spans="1:4" x14ac:dyDescent="0.25">
@@ -11312,10 +11312,10 @@
         <v>5</v>
       </c>
       <c r="C524" t="s">
-        <v>1020</v>
+        <v>1014</v>
       </c>
       <c r="D524" t="s">
-        <v>1021</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="525" spans="1:4" x14ac:dyDescent="0.25">
@@ -11326,10 +11326,10 @@
         <v>5</v>
       </c>
       <c r="C525" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D525" t="s">
-        <v>1022</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="526" spans="1:4" x14ac:dyDescent="0.25">
@@ -11340,10 +11340,10 @@
         <v>5</v>
       </c>
       <c r="C526" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D526" t="s">
-        <v>1023</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="527" spans="1:4" x14ac:dyDescent="0.25">
@@ -11354,10 +11354,10 @@
         <v>5</v>
       </c>
       <c r="C527" t="s">
-        <v>1024</v>
+        <v>1018</v>
       </c>
       <c r="D527" t="s">
-        <v>1025</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="528" spans="1:4" x14ac:dyDescent="0.25">
@@ -11368,10 +11368,10 @@
         <v>5</v>
       </c>
       <c r="C528" t="s">
-        <v>1026</v>
+        <v>1020</v>
       </c>
       <c r="D528" t="s">
-        <v>1027</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="529" spans="1:4" x14ac:dyDescent="0.25">
@@ -11382,10 +11382,10 @@
         <v>5</v>
       </c>
       <c r="C529" t="s">
-        <v>1028</v>
+        <v>1022</v>
       </c>
       <c r="D529" t="s">
-        <v>1029</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="530" spans="1:4" x14ac:dyDescent="0.25">
@@ -11396,10 +11396,10 @@
         <v>5</v>
       </c>
       <c r="C530" t="s">
-        <v>1030</v>
+        <v>1024</v>
       </c>
       <c r="D530" t="s">
-        <v>1031</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="531" spans="1:4" x14ac:dyDescent="0.25">
@@ -11410,10 +11410,10 @@
         <v>5</v>
       </c>
       <c r="C531" t="s">
-        <v>1032</v>
+        <v>1026</v>
       </c>
       <c r="D531" t="s">
-        <v>1033</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="532" spans="1:4" x14ac:dyDescent="0.25">
@@ -11427,7 +11427,7 @@
         <v>28</v>
       </c>
       <c r="D532" t="s">
-        <v>1034</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="533" spans="1:4" x14ac:dyDescent="0.25">
@@ -11438,10 +11438,10 @@
         <v>5</v>
       </c>
       <c r="C533" t="s">
-        <v>1035</v>
+        <v>1029</v>
       </c>
       <c r="D533" t="s">
-        <v>1036</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="534" spans="1:4" x14ac:dyDescent="0.25">
@@ -11452,10 +11452,10 @@
         <v>5</v>
       </c>
       <c r="C534" t="s">
-        <v>1037</v>
+        <v>1031</v>
       </c>
       <c r="D534" t="s">
-        <v>1038</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="535" spans="1:4" x14ac:dyDescent="0.25">
@@ -11466,10 +11466,10 @@
         <v>5</v>
       </c>
       <c r="C535" t="s">
-        <v>1039</v>
+        <v>1033</v>
       </c>
       <c r="D535" t="s">
-        <v>1040</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="536" spans="1:4" x14ac:dyDescent="0.25">
@@ -11480,10 +11480,10 @@
         <v>5</v>
       </c>
       <c r="C536" t="s">
-        <v>1041</v>
+        <v>1035</v>
       </c>
       <c r="D536" t="s">
-        <v>1042</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="537" spans="1:4" x14ac:dyDescent="0.25">
@@ -11494,10 +11494,10 @@
         <v>5</v>
       </c>
       <c r="C537" t="s">
-        <v>1043</v>
+        <v>1037</v>
       </c>
       <c r="D537" t="s">
-        <v>1044</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="538" spans="1:4" x14ac:dyDescent="0.25">
@@ -11508,10 +11508,10 @@
         <v>5</v>
       </c>
       <c r="C538" t="s">
-        <v>1045</v>
+        <v>1039</v>
       </c>
       <c r="D538" t="s">
-        <v>1046</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="539" spans="1:4" x14ac:dyDescent="0.25">
@@ -11522,10 +11522,10 @@
         <v>5</v>
       </c>
       <c r="C539" t="s">
-        <v>1047</v>
+        <v>1041</v>
       </c>
       <c r="D539" t="s">
-        <v>1048</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="540" spans="1:4" x14ac:dyDescent="0.25">
@@ -11536,10 +11536,10 @@
         <v>5</v>
       </c>
       <c r="C540" t="s">
-        <v>1049</v>
+        <v>1043</v>
       </c>
       <c r="D540" t="s">
-        <v>1050</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="541" spans="1:4" x14ac:dyDescent="0.25">
@@ -11550,10 +11550,10 @@
         <v>5</v>
       </c>
       <c r="C541" t="s">
-        <v>1051</v>
+        <v>1045</v>
       </c>
       <c r="D541" t="s">
-        <v>1052</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="542" spans="1:4" x14ac:dyDescent="0.25">
@@ -11564,10 +11564,10 @@
         <v>5</v>
       </c>
       <c r="C542" t="s">
-        <v>1053</v>
+        <v>1047</v>
       </c>
       <c r="D542" t="s">
-        <v>1054</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="543" spans="1:4" x14ac:dyDescent="0.25">
@@ -11578,10 +11578,10 @@
         <v>5</v>
       </c>
       <c r="C543" t="s">
-        <v>1055</v>
+        <v>1049</v>
       </c>
       <c r="D543" t="s">
-        <v>1056</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="544" spans="1:4" x14ac:dyDescent="0.25">
@@ -11592,10 +11592,10 @@
         <v>5</v>
       </c>
       <c r="C544" t="s">
-        <v>1057</v>
+        <v>1051</v>
       </c>
       <c r="D544" t="s">
-        <v>1058</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="545" spans="1:4" x14ac:dyDescent="0.25">
@@ -11606,10 +11606,10 @@
         <v>5</v>
       </c>
       <c r="C545" t="s">
-        <v>1059</v>
+        <v>1053</v>
       </c>
       <c r="D545" t="s">
-        <v>1060</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="546" spans="1:4" x14ac:dyDescent="0.25">
@@ -11620,10 +11620,10 @@
         <v>5</v>
       </c>
       <c r="C546" t="s">
-        <v>1061</v>
+        <v>1055</v>
       </c>
       <c r="D546" t="s">
-        <v>1062</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="547" spans="1:4" x14ac:dyDescent="0.25">
@@ -11634,10 +11634,10 @@
         <v>5</v>
       </c>
       <c r="C547" t="s">
-        <v>1063</v>
+        <v>1057</v>
       </c>
       <c r="D547" t="s">
-        <v>1064</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="548" spans="1:4" x14ac:dyDescent="0.25">
@@ -11648,10 +11648,10 @@
         <v>5</v>
       </c>
       <c r="C548" t="s">
-        <v>1065</v>
+        <v>1059</v>
       </c>
       <c r="D548" t="s">
-        <v>1066</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="549" spans="1:4" x14ac:dyDescent="0.25">
@@ -11662,10 +11662,10 @@
         <v>5</v>
       </c>
       <c r="C549" t="s">
-        <v>1067</v>
+        <v>1061</v>
       </c>
       <c r="D549" t="s">
-        <v>1068</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="550" spans="1:4" x14ac:dyDescent="0.25">
@@ -11676,10 +11676,10 @@
         <v>5</v>
       </c>
       <c r="C550" t="s">
-        <v>1069</v>
+        <v>1063</v>
       </c>
       <c r="D550" t="s">
-        <v>1070</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="551" spans="1:4" x14ac:dyDescent="0.25">
@@ -11690,10 +11690,10 @@
         <v>3</v>
       </c>
       <c r="C551" t="s">
-        <v>1071</v>
+        <v>1065</v>
       </c>
       <c r="D551" t="s">
-        <v>1072</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="552" spans="1:4" x14ac:dyDescent="0.25">
@@ -11704,10 +11704,10 @@
         <v>3</v>
       </c>
       <c r="C552" t="s">
-        <v>1073</v>
+        <v>1067</v>
       </c>
       <c r="D552" t="s">
-        <v>1074</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="553" spans="1:4" x14ac:dyDescent="0.25">
@@ -11718,10 +11718,10 @@
         <v>3</v>
       </c>
       <c r="C553" t="s">
-        <v>1075</v>
+        <v>1069</v>
       </c>
       <c r="D553" t="s">
-        <v>1076</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="554" spans="1:4" x14ac:dyDescent="0.25">
@@ -11732,10 +11732,10 @@
         <v>3</v>
       </c>
       <c r="C554" t="s">
-        <v>1077</v>
+        <v>1071</v>
       </c>
       <c r="D554" t="s">
-        <v>1078</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="555" spans="1:4" x14ac:dyDescent="0.25">
@@ -11746,10 +11746,10 @@
         <v>3</v>
       </c>
       <c r="C555" t="s">
-        <v>1079</v>
+        <v>1073</v>
       </c>
       <c r="D555" t="s">
-        <v>1080</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="556" spans="1:4" x14ac:dyDescent="0.25">
@@ -11760,10 +11760,10 @@
         <v>3</v>
       </c>
       <c r="C556" t="s">
-        <v>1081</v>
+        <v>1075</v>
       </c>
       <c r="D556" t="s">
-        <v>1082</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="557" spans="1:4" x14ac:dyDescent="0.25">
@@ -11774,10 +11774,10 @@
         <v>3</v>
       </c>
       <c r="C557" t="s">
-        <v>1083</v>
+        <v>1077</v>
       </c>
       <c r="D557" t="s">
-        <v>1084</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="558" spans="1:4" x14ac:dyDescent="0.25">
@@ -11788,10 +11788,10 @@
         <v>3</v>
       </c>
       <c r="C558" t="s">
-        <v>1085</v>
+        <v>1079</v>
       </c>
       <c r="D558" t="s">
-        <v>1086</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="559" spans="1:4" x14ac:dyDescent="0.25">
@@ -11802,10 +11802,10 @@
         <v>3</v>
       </c>
       <c r="C559" t="s">
-        <v>1087</v>
+        <v>1081</v>
       </c>
       <c r="D559" t="s">
-        <v>1088</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="560" spans="1:4" x14ac:dyDescent="0.25">
@@ -11816,10 +11816,10 @@
         <v>3</v>
       </c>
       <c r="C560" t="s">
-        <v>1089</v>
+        <v>1083</v>
       </c>
       <c r="D560" t="s">
-        <v>1090</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="561" spans="1:4" x14ac:dyDescent="0.25">
@@ -11830,10 +11830,10 @@
         <v>3</v>
       </c>
       <c r="C561" t="s">
-        <v>1091</v>
+        <v>1085</v>
       </c>
       <c r="D561" t="s">
-        <v>1092</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="562" spans="1:4" x14ac:dyDescent="0.25">
@@ -11844,10 +11844,10 @@
         <v>3</v>
       </c>
       <c r="C562" t="s">
-        <v>1093</v>
+        <v>1087</v>
       </c>
       <c r="D562" t="s">
-        <v>1094</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="563" spans="1:4" x14ac:dyDescent="0.25">
@@ -11858,10 +11858,10 @@
         <v>3</v>
       </c>
       <c r="C563" t="s">
-        <v>1095</v>
+        <v>1089</v>
       </c>
       <c r="D563" t="s">
-        <v>1096</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="564" spans="1:4" x14ac:dyDescent="0.25">
@@ -11872,10 +11872,10 @@
         <v>3</v>
       </c>
       <c r="C564" t="s">
-        <v>1097</v>
+        <v>1091</v>
       </c>
       <c r="D564" t="s">
-        <v>1098</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="565" spans="1:4" x14ac:dyDescent="0.25">
@@ -11886,10 +11886,10 @@
         <v>3</v>
       </c>
       <c r="C565" t="s">
-        <v>1099</v>
+        <v>1093</v>
       </c>
       <c r="D565" t="s">
-        <v>1100</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="566" spans="1:4" x14ac:dyDescent="0.25">
@@ -11900,10 +11900,10 @@
         <v>3</v>
       </c>
       <c r="C566" t="s">
-        <v>1101</v>
+        <v>1095</v>
       </c>
       <c r="D566" t="s">
-        <v>1102</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="567" spans="1:4" x14ac:dyDescent="0.25">
@@ -11914,10 +11914,10 @@
         <v>3</v>
       </c>
       <c r="C567" t="s">
-        <v>1103</v>
+        <v>1097</v>
       </c>
       <c r="D567" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="568" spans="1:4" x14ac:dyDescent="0.25">
@@ -11928,10 +11928,10 @@
         <v>3</v>
       </c>
       <c r="C568" t="s">
-        <v>1105</v>
+        <v>1099</v>
       </c>
       <c r="D568" t="s">
-        <v>1106</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="569" spans="1:4" x14ac:dyDescent="0.25">
@@ -11942,10 +11942,10 @@
         <v>3</v>
       </c>
       <c r="C569" t="s">
-        <v>1107</v>
+        <v>1101</v>
       </c>
       <c r="D569" t="s">
-        <v>1108</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="570" spans="1:4" x14ac:dyDescent="0.25">
@@ -11956,10 +11956,10 @@
         <v>3</v>
       </c>
       <c r="C570" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D570" t="s">
-        <v>1109</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="571" spans="1:4" x14ac:dyDescent="0.25">
@@ -11970,10 +11970,10 @@
         <v>6</v>
       </c>
       <c r="C571" t="s">
-        <v>1110</v>
+        <v>1104</v>
       </c>
       <c r="D571" t="s">
-        <v>1111</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="572" spans="1:4" x14ac:dyDescent="0.25">
@@ -11984,10 +11984,10 @@
         <v>6</v>
       </c>
       <c r="C572" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D572" t="s">
-        <v>1112</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="573" spans="1:4" x14ac:dyDescent="0.25">
@@ -11998,10 +11998,10 @@
         <v>6</v>
       </c>
       <c r="C573" t="s">
-        <v>1113</v>
+        <v>1107</v>
       </c>
       <c r="D573" t="s">
-        <v>1114</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="574" spans="1:4" x14ac:dyDescent="0.25">
@@ -12012,10 +12012,10 @@
         <v>6</v>
       </c>
       <c r="C574" t="s">
-        <v>1115</v>
+        <v>1109</v>
       </c>
       <c r="D574" t="s">
-        <v>1116</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="575" spans="1:4" x14ac:dyDescent="0.25">
@@ -12026,10 +12026,10 @@
         <v>6</v>
       </c>
       <c r="C575" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D575" t="s">
-        <v>1117</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="576" spans="1:4" x14ac:dyDescent="0.25">
@@ -12040,10 +12040,10 @@
         <v>6</v>
       </c>
       <c r="C576" t="s">
-        <v>1118</v>
+        <v>1112</v>
       </c>
       <c r="D576" t="s">
-        <v>1119</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="577" spans="1:4" x14ac:dyDescent="0.25">
@@ -12054,10 +12054,10 @@
         <v>6</v>
       </c>
       <c r="C577" t="s">
-        <v>1120</v>
+        <v>1114</v>
       </c>
       <c r="D577" t="s">
-        <v>1121</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="578" spans="1:4" x14ac:dyDescent="0.25">
@@ -12068,10 +12068,10 @@
         <v>6</v>
       </c>
       <c r="C578" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D578" t="s">
-        <v>1122</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="579" spans="1:4" x14ac:dyDescent="0.25">
@@ -12082,10 +12082,10 @@
         <v>6</v>
       </c>
       <c r="C579" t="s">
-        <v>1123</v>
+        <v>1117</v>
       </c>
       <c r="D579" t="s">
-        <v>1124</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="580" spans="1:4" x14ac:dyDescent="0.25">
@@ -12096,10 +12096,10 @@
         <v>6</v>
       </c>
       <c r="C580" t="s">
-        <v>1125</v>
+        <v>1119</v>
       </c>
       <c r="D580" t="s">
-        <v>1126</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="581" spans="1:4" x14ac:dyDescent="0.25">
@@ -12110,10 +12110,10 @@
         <v>6</v>
       </c>
       <c r="C581" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D581" t="s">
-        <v>1127</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="582" spans="1:4" x14ac:dyDescent="0.25">
@@ -12124,10 +12124,10 @@
         <v>6</v>
       </c>
       <c r="C582" t="s">
-        <v>1128</v>
+        <v>1122</v>
       </c>
       <c r="D582" t="s">
-        <v>1129</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="583" spans="1:4" x14ac:dyDescent="0.25">
@@ -12138,10 +12138,10 @@
         <v>6</v>
       </c>
       <c r="C583" t="s">
-        <v>1130</v>
+        <v>1124</v>
       </c>
       <c r="D583" t="s">
-        <v>1131</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="584" spans="1:4" x14ac:dyDescent="0.25">
@@ -12152,10 +12152,10 @@
         <v>6</v>
       </c>
       <c r="C584" t="s">
-        <v>1132</v>
+        <v>1126</v>
       </c>
       <c r="D584" t="s">
-        <v>1133</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="585" spans="1:4" x14ac:dyDescent="0.25">
@@ -12166,10 +12166,10 @@
         <v>6</v>
       </c>
       <c r="C585" t="s">
-        <v>1134</v>
+        <v>1128</v>
       </c>
       <c r="D585" t="s">
-        <v>1135</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="586" spans="1:4" x14ac:dyDescent="0.25">
@@ -12180,10 +12180,10 @@
         <v>6</v>
       </c>
       <c r="C586" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D586" t="s">
-        <v>1136</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="587" spans="1:4" x14ac:dyDescent="0.25">
@@ -12194,10 +12194,10 @@
         <v>6</v>
       </c>
       <c r="C587" t="s">
-        <v>1137</v>
+        <v>1131</v>
       </c>
       <c r="D587" t="s">
-        <v>1138</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="588" spans="1:4" x14ac:dyDescent="0.25">
@@ -12208,10 +12208,10 @@
         <v>6</v>
       </c>
       <c r="C588" t="s">
-        <v>1139</v>
+        <v>1133</v>
       </c>
       <c r="D588" t="s">
-        <v>1140</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="589" spans="1:4" x14ac:dyDescent="0.25">
@@ -12222,10 +12222,10 @@
         <v>6</v>
       </c>
       <c r="C589" t="s">
-        <v>1141</v>
+        <v>1135</v>
       </c>
       <c r="D589" t="s">
-        <v>1142</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="590" spans="1:4" x14ac:dyDescent="0.25">
@@ -12236,10 +12236,10 @@
         <v>6</v>
       </c>
       <c r="C590" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D590" t="s">
-        <v>1143</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="591" spans="1:4" x14ac:dyDescent="0.25">
@@ -12250,10 +12250,10 @@
         <v>6</v>
       </c>
       <c r="C591" t="s">
-        <v>1144</v>
+        <v>1138</v>
       </c>
       <c r="D591" t="s">
-        <v>1145</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="592" spans="1:4" x14ac:dyDescent="0.25">
@@ -12264,10 +12264,10 @@
         <v>6</v>
       </c>
       <c r="C592" t="s">
-        <v>1146</v>
+        <v>1140</v>
       </c>
       <c r="D592" t="s">
-        <v>1147</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="593" spans="1:4" x14ac:dyDescent="0.25">
@@ -12278,10 +12278,10 @@
         <v>6</v>
       </c>
       <c r="C593" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D593" t="s">
-        <v>1148</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="594" spans="1:4" x14ac:dyDescent="0.25">
@@ -12292,10 +12292,10 @@
         <v>6</v>
       </c>
       <c r="C594" t="s">
-        <v>1149</v>
+        <v>1143</v>
       </c>
       <c r="D594" t="s">
-        <v>1150</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="595" spans="1:4" x14ac:dyDescent="0.25">
@@ -12306,10 +12306,10 @@
         <v>6</v>
       </c>
       <c r="C595" t="s">
-        <v>1151</v>
+        <v>1145</v>
       </c>
       <c r="D595" t="s">
-        <v>1152</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="596" spans="1:4" x14ac:dyDescent="0.25">
@@ -12320,10 +12320,10 @@
         <v>6</v>
       </c>
       <c r="C596" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D596" t="s">
-        <v>1153</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="597" spans="1:4" x14ac:dyDescent="0.25">
@@ -12334,10 +12334,10 @@
         <v>6</v>
       </c>
       <c r="C597" t="s">
-        <v>1154</v>
+        <v>1148</v>
       </c>
       <c r="D597" t="s">
-        <v>1155</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="598" spans="1:4" x14ac:dyDescent="0.25">
@@ -12348,10 +12348,10 @@
         <v>6</v>
       </c>
       <c r="C598" t="s">
-        <v>1156</v>
+        <v>1150</v>
       </c>
       <c r="D598" t="s">
-        <v>1157</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="599" spans="1:4" x14ac:dyDescent="0.25">
@@ -12362,10 +12362,10 @@
         <v>6</v>
       </c>
       <c r="C599" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D599" t="s">
-        <v>1158</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="600" spans="1:4" x14ac:dyDescent="0.25">
@@ -12376,10 +12376,10 @@
         <v>6</v>
       </c>
       <c r="C600" t="s">
-        <v>1159</v>
+        <v>1153</v>
       </c>
       <c r="D600" t="s">
-        <v>1160</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="601" spans="1:4" x14ac:dyDescent="0.25">
@@ -12390,10 +12390,10 @@
         <v>6</v>
       </c>
       <c r="C601" t="s">
-        <v>1161</v>
+        <v>1155</v>
       </c>
       <c r="D601" t="s">
-        <v>1162</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="602" spans="1:4" x14ac:dyDescent="0.25">
@@ -12404,10 +12404,10 @@
         <v>6</v>
       </c>
       <c r="C602" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D602" t="s">
-        <v>1163</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="603" spans="1:4" x14ac:dyDescent="0.25">
@@ -12418,10 +12418,10 @@
         <v>6</v>
       </c>
       <c r="C603" t="s">
-        <v>1164</v>
+        <v>1158</v>
       </c>
       <c r="D603" t="s">
-        <v>1165</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="604" spans="1:4" x14ac:dyDescent="0.25">
@@ -12432,10 +12432,10 @@
         <v>6</v>
       </c>
       <c r="C604" t="s">
-        <v>1166</v>
+        <v>1160</v>
       </c>
       <c r="D604" t="s">
-        <v>1167</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="605" spans="1:4" x14ac:dyDescent="0.25">
@@ -12446,10 +12446,10 @@
         <v>6</v>
       </c>
       <c r="C605" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D605" t="s">
-        <v>1168</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="606" spans="1:4" x14ac:dyDescent="0.25">
@@ -12460,10 +12460,10 @@
         <v>6</v>
       </c>
       <c r="C606" t="s">
-        <v>1169</v>
+        <v>1163</v>
       </c>
       <c r="D606" t="s">
-        <v>1170</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="607" spans="1:4" x14ac:dyDescent="0.25">
@@ -12474,10 +12474,10 @@
         <v>6</v>
       </c>
       <c r="C607" t="s">
-        <v>1171</v>
+        <v>1165</v>
       </c>
       <c r="D607" t="s">
-        <v>1172</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="608" spans="1:4" x14ac:dyDescent="0.25">
@@ -12488,10 +12488,10 @@
         <v>6</v>
       </c>
       <c r="C608" t="s">
-        <v>1173</v>
+        <v>1167</v>
       </c>
       <c r="D608" t="s">
-        <v>1174</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="609" spans="1:4" x14ac:dyDescent="0.25">
@@ -12502,10 +12502,10 @@
         <v>6</v>
       </c>
       <c r="C609" t="s">
-        <v>1175</v>
+        <v>1169</v>
       </c>
       <c r="D609" t="s">
-        <v>1176</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="610" spans="1:4" x14ac:dyDescent="0.25">
@@ -12516,10 +12516,10 @@
         <v>6</v>
       </c>
       <c r="C610" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D610" t="s">
-        <v>1177</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="611" spans="1:4" x14ac:dyDescent="0.25">
@@ -12530,10 +12530,10 @@
         <v>6</v>
       </c>
       <c r="C611" t="s">
-        <v>1178</v>
+        <v>1172</v>
       </c>
       <c r="D611" t="s">
-        <v>1179</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="612" spans="1:4" x14ac:dyDescent="0.25">
@@ -12544,10 +12544,10 @@
         <v>6</v>
       </c>
       <c r="C612" t="s">
-        <v>1180</v>
+        <v>1174</v>
       </c>
       <c r="D612" t="s">
-        <v>1181</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="613" spans="1:4" x14ac:dyDescent="0.25">
@@ -12558,10 +12558,10 @@
         <v>6</v>
       </c>
       <c r="C613" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D613" t="s">
-        <v>1182</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="614" spans="1:4" x14ac:dyDescent="0.25">
@@ -12572,10 +12572,10 @@
         <v>6</v>
       </c>
       <c r="C614" t="s">
-        <v>1183</v>
+        <v>1177</v>
       </c>
       <c r="D614" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="615" spans="1:4" x14ac:dyDescent="0.25">
@@ -12586,10 +12586,10 @@
         <v>6</v>
       </c>
       <c r="C615" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D615" t="s">
-        <v>1185</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="616" spans="1:4" x14ac:dyDescent="0.25">
@@ -12600,10 +12600,10 @@
         <v>6</v>
       </c>
       <c r="C616" t="s">
-        <v>1186</v>
+        <v>1180</v>
       </c>
       <c r="D616" t="s">
-        <v>1187</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="617" spans="1:4" x14ac:dyDescent="0.25">
@@ -12614,10 +12614,10 @@
         <v>6</v>
       </c>
       <c r="C617" t="s">
-        <v>1188</v>
+        <v>1182</v>
       </c>
       <c r="D617" t="s">
-        <v>1189</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="618" spans="1:4" x14ac:dyDescent="0.25">
@@ -12628,10 +12628,10 @@
         <v>6</v>
       </c>
       <c r="C618" t="s">
-        <v>1190</v>
+        <v>1184</v>
       </c>
       <c r="D618" t="s">
-        <v>1191</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="619" spans="1:4" x14ac:dyDescent="0.25">
@@ -12642,10 +12642,10 @@
         <v>6</v>
       </c>
       <c r="C619" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D619" t="s">
-        <v>1192</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="620" spans="1:4" x14ac:dyDescent="0.25">
@@ -12656,10 +12656,10 @@
         <v>6</v>
       </c>
       <c r="C620" t="s">
-        <v>1193</v>
+        <v>1187</v>
       </c>
       <c r="D620" t="s">
-        <v>1194</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="621" spans="1:4" x14ac:dyDescent="0.25">
@@ -12670,10 +12670,10 @@
         <v>6</v>
       </c>
       <c r="C621" t="s">
-        <v>1195</v>
+        <v>1189</v>
       </c>
       <c r="D621" t="s">
-        <v>1196</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="622" spans="1:4" x14ac:dyDescent="0.25">
@@ -12684,10 +12684,10 @@
         <v>6</v>
       </c>
       <c r="C622" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D622" t="s">
-        <v>1197</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="623" spans="1:4" x14ac:dyDescent="0.25">
@@ -12698,10 +12698,10 @@
         <v>6</v>
       </c>
       <c r="C623" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
       <c r="D623" t="s">
-        <v>1199</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="624" spans="1:4" x14ac:dyDescent="0.25">
@@ -12712,10 +12712,10 @@
         <v>6</v>
       </c>
       <c r="C624" t="s">
-        <v>1200</v>
+        <v>1194</v>
       </c>
       <c r="D624" t="s">
-        <v>1201</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="625" spans="1:4" x14ac:dyDescent="0.25">
@@ -12726,10 +12726,10 @@
         <v>6</v>
       </c>
       <c r="C625" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D625" t="s">
-        <v>1202</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="626" spans="1:4" x14ac:dyDescent="0.25">
@@ -12740,10 +12740,10 @@
         <v>6</v>
       </c>
       <c r="C626" t="s">
-        <v>1203</v>
+        <v>1197</v>
       </c>
       <c r="D626" t="s">
-        <v>1204</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="627" spans="1:4" x14ac:dyDescent="0.25">
@@ -12754,10 +12754,10 @@
         <v>6</v>
       </c>
       <c r="C627" t="s">
-        <v>1205</v>
+        <v>1199</v>
       </c>
       <c r="D627" t="s">
-        <v>1206</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="628" spans="1:4" x14ac:dyDescent="0.25">
@@ -12768,10 +12768,10 @@
         <v>6</v>
       </c>
       <c r="C628" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D628" t="s">
-        <v>1207</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="629" spans="1:4" x14ac:dyDescent="0.25">
@@ -12782,10 +12782,10 @@
         <v>6</v>
       </c>
       <c r="C629" t="s">
-        <v>1208</v>
+        <v>1202</v>
       </c>
       <c r="D629" t="s">
-        <v>1209</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="630" spans="1:4" x14ac:dyDescent="0.25">
@@ -12796,10 +12796,10 @@
         <v>6</v>
       </c>
       <c r="C630" t="s">
-        <v>1210</v>
+        <v>1204</v>
       </c>
       <c r="D630" t="s">
-        <v>1211</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="631" spans="1:4" x14ac:dyDescent="0.25">
@@ -12810,10 +12810,10 @@
         <v>6</v>
       </c>
       <c r="C631" t="s">
-        <v>1016</v>
+        <v>1010</v>
       </c>
       <c r="D631" t="s">
-        <v>1212</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="632" spans="1:4" x14ac:dyDescent="0.25">
@@ -12824,10 +12824,10 @@
         <v>6</v>
       </c>
       <c r="C632" t="s">
-        <v>1213</v>
+        <v>1207</v>
       </c>
       <c r="D632" t="s">
-        <v>1214</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="633" spans="1:4" x14ac:dyDescent="0.25">
@@ -12838,10 +12838,10 @@
         <v>6</v>
       </c>
       <c r="C633" t="s">
-        <v>1215</v>
+        <v>1209</v>
       </c>
       <c r="D633" t="s">
-        <v>1216</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="634" spans="1:4" x14ac:dyDescent="0.25">
@@ -12852,10 +12852,10 @@
         <v>6</v>
       </c>
       <c r="C634" t="s">
-        <v>1018</v>
+        <v>1012</v>
       </c>
       <c r="D634" t="s">
-        <v>1217</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="635" spans="1:4" x14ac:dyDescent="0.25">
@@ -12866,10 +12866,10 @@
         <v>6</v>
       </c>
       <c r="C635" t="s">
-        <v>1218</v>
+        <v>1212</v>
       </c>
       <c r="D635" t="s">
-        <v>1219</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="636" spans="1:4" x14ac:dyDescent="0.25">
@@ -12880,10 +12880,10 @@
         <v>6</v>
       </c>
       <c r="C636" t="s">
-        <v>1220</v>
+        <v>1214</v>
       </c>
       <c r="D636" t="s">
-        <v>1221</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="637" spans="1:4" x14ac:dyDescent="0.25">
@@ -12894,10 +12894,10 @@
         <v>6</v>
       </c>
       <c r="C637" t="s">
-        <v>1020</v>
+        <v>1014</v>
       </c>
       <c r="D637" t="s">
-        <v>1222</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="638" spans="1:4" x14ac:dyDescent="0.25">
@@ -12908,10 +12908,10 @@
         <v>6</v>
       </c>
       <c r="C638" t="s">
-        <v>1223</v>
+        <v>1217</v>
       </c>
       <c r="D638" t="s">
-        <v>1224</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="639" spans="1:4" x14ac:dyDescent="0.25">
@@ -12922,10 +12922,10 @@
         <v>6</v>
       </c>
       <c r="C639" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D639" t="s">
-        <v>1225</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="640" spans="1:4" x14ac:dyDescent="0.25">
@@ -12936,10 +12936,10 @@
         <v>6</v>
       </c>
       <c r="C640" t="s">
-        <v>1226</v>
+        <v>1220</v>
       </c>
       <c r="D640" t="s">
-        <v>1227</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="641" spans="1:4" x14ac:dyDescent="0.25">
@@ -12953,7 +12953,7 @@
         <v>28</v>
       </c>
       <c r="D641" t="s">
-        <v>1228</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="642" spans="1:4" x14ac:dyDescent="0.25">
@@ -12967,7 +12967,7 @@
         <v>12</v>
       </c>
       <c r="D642" t="s">
-        <v>1229</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="643" spans="1:4" x14ac:dyDescent="0.25">
@@ -12978,10 +12978,10 @@
         <v>6</v>
       </c>
       <c r="C643" t="s">
-        <v>1230</v>
+        <v>1224</v>
       </c>
       <c r="D643" t="s">
-        <v>1231</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="644" spans="1:4" x14ac:dyDescent="0.25">
@@ -12992,10 +12992,10 @@
         <v>6</v>
       </c>
       <c r="C644" t="s">
-        <v>1232</v>
+        <v>1226</v>
       </c>
       <c r="D644" t="s">
-        <v>1233</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="645" spans="1:4" x14ac:dyDescent="0.25">
@@ -13006,10 +13006,10 @@
         <v>6</v>
       </c>
       <c r="C645" t="s">
-        <v>1234</v>
+        <v>1228</v>
       </c>
       <c r="D645" t="s">
-        <v>1235</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="646" spans="1:4" x14ac:dyDescent="0.25">
@@ -13020,10 +13020,10 @@
         <v>6</v>
       </c>
       <c r="C646" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="D646" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="647" spans="1:4" x14ac:dyDescent="0.25">
@@ -13034,10 +13034,10 @@
         <v>6</v>
       </c>
       <c r="C647" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="D647" t="s">
-        <v>1239</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="648" spans="1:4" x14ac:dyDescent="0.25">
@@ -13048,10 +13048,10 @@
         <v>6</v>
       </c>
       <c r="C648" t="s">
-        <v>1240</v>
+        <v>1234</v>
       </c>
       <c r="D648" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="649" spans="1:4" x14ac:dyDescent="0.25">
@@ -13062,10 +13062,10 @@
         <v>6</v>
       </c>
       <c r="C649" t="s">
-        <v>1242</v>
+        <v>1236</v>
       </c>
       <c r="D649" t="s">
-        <v>1243</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="650" spans="1:4" x14ac:dyDescent="0.25">
@@ -13076,10 +13076,10 @@
         <v>6</v>
       </c>
       <c r="C650" t="s">
-        <v>1244</v>
+        <v>1238</v>
       </c>
       <c r="D650" t="s">
-        <v>1245</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="651" spans="1:4" x14ac:dyDescent="0.25">
@@ -13090,10 +13090,10 @@
         <v>6</v>
       </c>
       <c r="C651" t="s">
-        <v>1246</v>
+        <v>1240</v>
       </c>
       <c r="D651" t="s">
-        <v>1247</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="652" spans="1:4" x14ac:dyDescent="0.25">
@@ -13104,10 +13104,10 @@
         <v>6</v>
       </c>
       <c r="C652" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
       <c r="D652" t="s">
-        <v>1249</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="653" spans="1:4" x14ac:dyDescent="0.25">
@@ -13118,10 +13118,10 @@
         <v>6</v>
       </c>
       <c r="C653" t="s">
-        <v>1250</v>
+        <v>1244</v>
       </c>
       <c r="D653" t="s">
-        <v>1251</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="654" spans="1:4" x14ac:dyDescent="0.25">
@@ -13132,10 +13132,10 @@
         <v>6</v>
       </c>
       <c r="C654" t="s">
-        <v>1252</v>
+        <v>1246</v>
       </c>
       <c r="D654" t="s">
-        <v>1253</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="655" spans="1:4" x14ac:dyDescent="0.25">
@@ -13146,10 +13146,10 @@
         <v>6</v>
       </c>
       <c r="C655" t="s">
-        <v>1254</v>
+        <v>1248</v>
       </c>
       <c r="D655" t="s">
-        <v>1255</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="656" spans="1:4" x14ac:dyDescent="0.25">
@@ -13160,10 +13160,10 @@
         <v>6</v>
       </c>
       <c r="C656" t="s">
-        <v>1256</v>
+        <v>1250</v>
       </c>
       <c r="D656" t="s">
-        <v>1257</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="657" spans="1:4" x14ac:dyDescent="0.25">
@@ -13174,10 +13174,10 @@
         <v>6</v>
       </c>
       <c r="C657" t="s">
-        <v>1258</v>
+        <v>1252</v>
       </c>
       <c r="D657" t="s">
-        <v>1259</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="658" spans="1:4" x14ac:dyDescent="0.25">
@@ -13188,10 +13188,10 @@
         <v>6</v>
       </c>
       <c r="C658" t="s">
-        <v>1260</v>
+        <v>1254</v>
       </c>
       <c r="D658" t="s">
-        <v>1261</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="659" spans="1:4" x14ac:dyDescent="0.25">
@@ -13202,10 +13202,10 @@
         <v>6</v>
       </c>
       <c r="C659" t="s">
-        <v>1262</v>
+        <v>1256</v>
       </c>
       <c r="D659" t="s">
-        <v>1263</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="660" spans="1:4" x14ac:dyDescent="0.25">
@@ -13216,10 +13216,10 @@
         <v>6</v>
       </c>
       <c r="C660" t="s">
-        <v>1264</v>
+        <v>1258</v>
       </c>
       <c r="D660" t="s">
-        <v>1265</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="661" spans="1:4" x14ac:dyDescent="0.25">
@@ -13230,10 +13230,10 @@
         <v>6</v>
       </c>
       <c r="C661" t="s">
-        <v>1266</v>
+        <v>1260</v>
       </c>
       <c r="D661" t="s">
-        <v>1267</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="662" spans="1:4" x14ac:dyDescent="0.25">
@@ -13244,10 +13244,10 @@
         <v>6</v>
       </c>
       <c r="C662" t="s">
-        <v>1268</v>
+        <v>1262</v>
       </c>
       <c r="D662" t="s">
-        <v>1269</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="663" spans="1:4" x14ac:dyDescent="0.25">
@@ -13258,10 +13258,10 @@
         <v>6</v>
       </c>
       <c r="C663" t="s">
-        <v>1270</v>
+        <v>1293</v>
       </c>
       <c r="D663" t="s">
-        <v>1271</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="664" spans="1:4" x14ac:dyDescent="0.25">
@@ -13272,10 +13272,10 @@
         <v>6</v>
       </c>
       <c r="C664" t="s">
-        <v>1272</v>
+        <v>1265</v>
       </c>
       <c r="D664" t="s">
-        <v>1273</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="665" spans="1:4" x14ac:dyDescent="0.25">
@@ -13286,10 +13286,10 @@
         <v>6</v>
       </c>
       <c r="C665" t="s">
-        <v>1274</v>
+        <v>1267</v>
       </c>
       <c r="D665" t="s">
-        <v>1275</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="666" spans="1:4" x14ac:dyDescent="0.25">
@@ -13300,10 +13300,10 @@
         <v>6</v>
       </c>
       <c r="C666" t="s">
-        <v>1276</v>
+        <v>1269</v>
       </c>
       <c r="D666" t="s">
-        <v>1277</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="667" spans="1:4" x14ac:dyDescent="0.25">
@@ -13314,10 +13314,10 @@
         <v>6</v>
       </c>
       <c r="C667" t="s">
-        <v>1278</v>
+        <v>1271</v>
       </c>
       <c r="D667" t="s">
-        <v>1279</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="668" spans="1:4" x14ac:dyDescent="0.25">
@@ -13328,10 +13328,10 @@
         <v>6</v>
       </c>
       <c r="C668" t="s">
-        <v>1280</v>
+        <v>1273</v>
       </c>
       <c r="D668" t="s">
-        <v>1281</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="669" spans="1:4" x14ac:dyDescent="0.25">
@@ -13342,10 +13342,10 @@
         <v>6</v>
       </c>
       <c r="C669" t="s">
-        <v>1282</v>
+        <v>1275</v>
       </c>
       <c r="D669" t="s">
-        <v>1283</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="670" spans="1:4" x14ac:dyDescent="0.25">
@@ -13356,10 +13356,10 @@
         <v>6</v>
       </c>
       <c r="C670" t="s">
-        <v>1284</v>
+        <v>1277</v>
       </c>
       <c r="D670" t="s">
-        <v>1285</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="671" spans="1:4" x14ac:dyDescent="0.25">
@@ -13370,10 +13370,10 @@
         <v>6</v>
       </c>
       <c r="C671" t="s">
-        <v>1286</v>
+        <v>1279</v>
       </c>
       <c r="D671" t="s">
-        <v>1287</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="672" spans="1:4" x14ac:dyDescent="0.25">
@@ -13384,10 +13384,10 @@
         <v>6</v>
       </c>
       <c r="C672" t="s">
-        <v>1288</v>
+        <v>1281</v>
       </c>
       <c r="D672" t="s">
-        <v>1289</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="673" spans="1:4" x14ac:dyDescent="0.25">
@@ -13398,10 +13398,10 @@
         <v>6</v>
       </c>
       <c r="C673" t="s">
-        <v>1290</v>
+        <v>1283</v>
       </c>
       <c r="D673" t="s">
-        <v>1291</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="674" spans="1:4" x14ac:dyDescent="0.25">
@@ -13412,10 +13412,10 @@
         <v>6</v>
       </c>
       <c r="C674" t="s">
-        <v>1292</v>
+        <v>1285</v>
       </c>
       <c r="D674" t="s">
-        <v>1293</v>
+        <v>1286</v>
       </c>
     </row>
   </sheetData>
